--- a/table.xlsx
+++ b/table.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S313"/>
+  <dimension ref="A1:R314"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,9 +433,6 @@
         <v>start</v>
       </c>
       <c r="R1" t="str">
-        <v>period</v>
-      </c>
-      <c r="S1" t="str">
         <v>aux.source</v>
       </c>
     </row>
@@ -3060,9 +3057,6 @@
       <c r="Q160">
         <v>0</v>
       </c>
-      <c r="R160">
-        <v>120</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -3100,7 +3094,7 @@
       <c r="M162" t="str">
         <v>Volume of brain</v>
       </c>
-      <c r="S162" t="str">
+      <c r="R162" t="str">
         <v>measured</v>
       </c>
     </row>
@@ -5003,7 +4997,7 @@
         <v>c_NAAA_ROB</v>
       </c>
       <c r="F252" t="str">
-        <v>LIVER * b_NAAA_Liver + Gut * b_NAAA_Gut + Spleen * b_NAAA_Spleen + Kidney * b_NAAA_Kidney + Heart * b_NAAA_Heart + Lungs * b_NAAA_Lungs + Thymus * b_NAAA_Thymus + Testis * b_NAAA_Thymus * Testis</v>
+        <v>LIVER * b_NAAA_Liver + Gut * b_NAAA_Gut + Spleen * b_NAAA_Spleen + Kidney * b_NAAA_Kidney + Heart * b_NAAA_Heart + Lungs * b_NAAA_Lungs + Thymus * b_NAAA_Thymus + Testis * b_NAAA_Testis</v>
       </c>
       <c r="G252" t="str">
         <v>L</v>
@@ -5832,7 +5826,7 @@
         <v>Const</v>
       </c>
       <c r="C293" t="str">
-        <v>ktr_r_p</v>
+        <v>ktr_r_p_A</v>
       </c>
       <c r="D293">
         <v>100</v>
@@ -5849,13 +5843,13 @@
         <v>Const</v>
       </c>
       <c r="C294" t="str">
-        <v>Ktr_p_r_A</v>
+        <v>ktr_r_p</v>
       </c>
       <c r="D294">
-        <v>0.62</v>
+        <v>100</v>
       </c>
       <c r="G294" t="str">
-        <v>UL</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="295">
@@ -5866,10 +5860,10 @@
         <v>Const</v>
       </c>
       <c r="C295" t="str">
-        <v>Ktr_p_r_O</v>
+        <v>Ktr_p_r_A</v>
       </c>
       <c r="D295">
-        <v>2.8</v>
+        <v>0.62</v>
       </c>
       <c r="G295" t="str">
         <v>UL</v>
@@ -5883,10 +5877,10 @@
         <v>Const</v>
       </c>
       <c r="C296" t="str">
-        <v>Ktr_p_r_P</v>
+        <v>Ktr_p_r_O</v>
       </c>
       <c r="D296">
-        <v>0.85</v>
+        <v>2.8</v>
       </c>
       <c r="G296" t="str">
         <v>UL</v>
@@ -5900,10 +5894,10 @@
         <v>Const</v>
       </c>
       <c r="C297" t="str">
-        <v>Ktr_p_r_L</v>
+        <v>Ktr_p_r_P</v>
       </c>
       <c r="D297">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="G297" t="str">
         <v>UL</v>
@@ -5917,10 +5911,10 @@
         <v>Const</v>
       </c>
       <c r="C298" t="str">
-        <v>Ktr_p_r_S</v>
+        <v>Ktr_p_r_L</v>
       </c>
       <c r="D298">
-        <v>9.19</v>
+        <v>0.89</v>
       </c>
       <c r="G298" t="str">
         <v>UL</v>
@@ -5931,22 +5925,16 @@
         <v>1</v>
       </c>
       <c r="B299" t="str">
-        <v>Reaction</v>
+        <v>Const</v>
       </c>
       <c r="C299" t="str">
-        <v>vA_m_p</v>
-      </c>
-      <c r="F299" t="str">
-        <v>MEC * ktr_m_p_A * (A_m - A_p * Ktr_p_m_A) / (A_m + A_p + Km_p_m_A)</v>
+        <v>Ktr_p_r_S</v>
+      </c>
+      <c r="D299">
+        <v>9.19</v>
       </c>
       <c r="G299" t="str">
-        <v>nmole/h</v>
-      </c>
-      <c r="J299" t="str">
-        <v>A_m = A_p</v>
-      </c>
-      <c r="P299" t="str">
-        <v>true</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="300">
@@ -5957,16 +5945,16 @@
         <v>Reaction</v>
       </c>
       <c r="C300" t="str">
-        <v>vO_m_p</v>
+        <v>vA_m_p</v>
       </c>
       <c r="F300" t="str">
-        <v>MEC * ktr_m_p_O * (O_m - O_p * Ktr_p_m_O)</v>
+        <v>MEC * ktr_m_p_A * (A_m - A_p * Ktr_p_m_A) / (A_m + A_p + Km_p_m_A)</v>
       </c>
       <c r="G300" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J300" t="str">
-        <v>O_m = O_p</v>
+        <v>A_m = A_p</v>
       </c>
       <c r="P300" t="str">
         <v>true</v>
@@ -5980,16 +5968,16 @@
         <v>Reaction</v>
       </c>
       <c r="C301" t="str">
-        <v>vP_m_p</v>
+        <v>vO_m_p</v>
       </c>
       <c r="F301" t="str">
-        <v>MEC * ktr_m_p_P * (P_m - P_p * Ktr_p_m_P)</v>
+        <v>MEC * ktr_m_p_O * (O_m - O_p * Ktr_p_m_O)</v>
       </c>
       <c r="G301" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J301" t="str">
-        <v>P_m = P_p</v>
+        <v>O_m = O_p</v>
       </c>
       <c r="P301" t="str">
         <v>true</v>
@@ -6003,16 +5991,16 @@
         <v>Reaction</v>
       </c>
       <c r="C302" t="str">
-        <v>vL_m_p</v>
+        <v>vP_m_p</v>
       </c>
       <c r="F302" t="str">
-        <v>MEC * ktr_m_p_L * (L_m - L_p * Ktr_p_m_L)</v>
+        <v>MEC * ktr_m_p_P * (P_m - P_p * Ktr_p_m_P)</v>
       </c>
       <c r="G302" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J302" t="str">
-        <v>L_m = L_p</v>
+        <v>P_m = P_p</v>
       </c>
       <c r="P302" t="str">
         <v>true</v>
@@ -6026,16 +6014,16 @@
         <v>Reaction</v>
       </c>
       <c r="C303" t="str">
-        <v>vS_m_p</v>
+        <v>vL_m_p</v>
       </c>
       <c r="F303" t="str">
-        <v>MEC * ktr_m_p_S * (S_m - S_p * Ktr_p_m_S)</v>
+        <v>MEC * ktr_m_p_L * (L_m - L_p * Ktr_p_m_L)</v>
       </c>
       <c r="G303" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J303" t="str">
-        <v>S_m = S_p</v>
+        <v>L_m = L_p</v>
       </c>
       <c r="P303" t="str">
         <v>true</v>
@@ -6049,16 +6037,16 @@
         <v>Reaction</v>
       </c>
       <c r="C304" t="str">
-        <v>vA_b_m</v>
+        <v>vS_m_p</v>
       </c>
       <c r="F304" t="str">
-        <v>MEC * ktr_m_p_A * (A_b - A_m) / (A_m + A_b + Km_p_m_A)</v>
+        <v>MEC * ktr_m_p_S * (S_m - S_p * Ktr_p_m_S)</v>
       </c>
       <c r="G304" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J304" t="str">
-        <v>A_b = A_m</v>
+        <v>S_m = S_p</v>
       </c>
       <c r="P304" t="str">
         <v>true</v>
@@ -6072,16 +6060,16 @@
         <v>Reaction</v>
       </c>
       <c r="C305" t="str">
-        <v>vO_b_m</v>
+        <v>vA_b_m</v>
       </c>
       <c r="F305" t="str">
-        <v>MEC * ktr_m_p_O * (O_b - O_m)</v>
+        <v>MEC * ktr_m_p_A * (A_b - A_m) / (A_m + A_b + Km_p_m_A)</v>
       </c>
       <c r="G305" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J305" t="str">
-        <v>O_b = O_m</v>
+        <v>A_b = A_m</v>
       </c>
       <c r="P305" t="str">
         <v>true</v>
@@ -6095,16 +6083,16 @@
         <v>Reaction</v>
       </c>
       <c r="C306" t="str">
-        <v>vP_b_m</v>
+        <v>vO_b_m</v>
       </c>
       <c r="F306" t="str">
-        <v>MEC * ktr_m_p_P * (P_b - P_m)</v>
+        <v>MEC * ktr_m_p_O * (O_b - O_m)</v>
       </c>
       <c r="G306" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J306" t="str">
-        <v>P_b = P_m</v>
+        <v>O_b = O_m</v>
       </c>
       <c r="P306" t="str">
         <v>true</v>
@@ -6118,16 +6106,16 @@
         <v>Reaction</v>
       </c>
       <c r="C307" t="str">
-        <v>vL_b_m</v>
+        <v>vP_b_m</v>
       </c>
       <c r="F307" t="str">
-        <v>MEC * ktr_m_p_L * (L_b - L_m)</v>
+        <v>MEC * ktr_m_p_P * (P_b - P_m)</v>
       </c>
       <c r="G307" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J307" t="str">
-        <v>L_b = L_m</v>
+        <v>P_b = P_m</v>
       </c>
       <c r="P307" t="str">
         <v>true</v>
@@ -6141,16 +6129,16 @@
         <v>Reaction</v>
       </c>
       <c r="C308" t="str">
-        <v>vS_b_m</v>
+        <v>vL_b_m</v>
       </c>
       <c r="F308" t="str">
-        <v>MEC * ktr_m_p_S * (S_b - S_m)</v>
+        <v>MEC * ktr_m_p_L * (L_b - L_m)</v>
       </c>
       <c r="G308" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J308" t="str">
-        <v>S_b = S_m</v>
+        <v>L_b = L_m</v>
       </c>
       <c r="P308" t="str">
         <v>true</v>
@@ -6164,16 +6152,16 @@
         <v>Reaction</v>
       </c>
       <c r="C309" t="str">
-        <v>vA_r_p</v>
+        <v>vS_b_m</v>
       </c>
       <c r="F309" t="str">
-        <v>PLASMA * ktr_r_p * (A_r - A_p * Ktr_p_r_A) / (A_r + A_p + Km_p_m_A)</v>
+        <v>MEC * ktr_m_p_S * (S_b - S_m)</v>
       </c>
       <c r="G309" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J309" t="str">
-        <v>A_r = A_p</v>
+        <v>S_b = S_m</v>
       </c>
       <c r="P309" t="str">
         <v>true</v>
@@ -6187,16 +6175,16 @@
         <v>Reaction</v>
       </c>
       <c r="C310" t="str">
-        <v>vO_r_p</v>
+        <v>vA_r_p</v>
       </c>
       <c r="F310" t="str">
-        <v>PLASMA * ktr_r_p * (O_r - O_p * Ktr_p_r_O)</v>
+        <v>PLASMA * ktr_r_p_A * (A_r - A_p * Ktr_p_r_A) / (A_r + A_p + Km_p_m_A)</v>
       </c>
       <c r="G310" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J310" t="str">
-        <v>O_r = O_p</v>
+        <v>A_r = A_p</v>
       </c>
       <c r="P310" t="str">
         <v>true</v>
@@ -6210,16 +6198,16 @@
         <v>Reaction</v>
       </c>
       <c r="C311" t="str">
-        <v>vP_r_p</v>
+        <v>vO_r_p</v>
       </c>
       <c r="F311" t="str">
-        <v>PLASMA * ktr_r_p * (P_r - P_p * Ktr_p_r_P)</v>
+        <v>PLASMA * ktr_r_p * (O_r - O_p * Ktr_p_r_O)</v>
       </c>
       <c r="G311" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J311" t="str">
-        <v>P_r = P_p</v>
+        <v>O_r = O_p</v>
       </c>
       <c r="P311" t="str">
         <v>true</v>
@@ -6233,16 +6221,16 @@
         <v>Reaction</v>
       </c>
       <c r="C312" t="str">
-        <v>vL_r_p</v>
+        <v>vP_r_p</v>
       </c>
       <c r="F312" t="str">
-        <v>PLASMA * ktr_r_p * (L_r - L_p * Ktr_p_r_L)</v>
+        <v>PLASMA * ktr_r_p * (P_r - P_p * Ktr_p_r_P)</v>
       </c>
       <c r="G312" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J312" t="str">
-        <v>L_r = L_p</v>
+        <v>P_r = P_p</v>
       </c>
       <c r="P312" t="str">
         <v>true</v>
@@ -6256,24 +6244,47 @@
         <v>Reaction</v>
       </c>
       <c r="C313" t="str">
-        <v>vS_r_p</v>
+        <v>vL_r_p</v>
       </c>
       <c r="F313" t="str">
-        <v>PLASMA * ktr_r_p * (S_r - S_p * Ktr_p_r_S)</v>
+        <v>PLASMA * ktr_r_p * (L_r - L_p * Ktr_p_r_L)</v>
       </c>
       <c r="G313" t="str">
         <v>nmole/h</v>
       </c>
       <c r="J313" t="str">
-        <v>S_r = S_p</v>
+        <v>L_r = L_p</v>
       </c>
       <c r="P313" t="str">
         <v>true</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314">
+        <v>1</v>
+      </c>
+      <c r="B314" t="str">
+        <v>Reaction</v>
+      </c>
+      <c r="C314" t="str">
+        <v>vS_r_p</v>
+      </c>
+      <c r="F314" t="str">
+        <v>PLASMA * ktr_r_p * (S_r - S_p * Ktr_p_r_S)</v>
+      </c>
+      <c r="G314" t="str">
+        <v>nmole/h</v>
+      </c>
+      <c r="J314" t="str">
+        <v>S_r = S_p</v>
+      </c>
+      <c r="P314" t="str">
+        <v>true</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S313"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R314"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T315"/>
+  <dimension ref="A1:T316"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,17 +442,28 @@
         <v>aux.source</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="str">
+        <v>TimeScale</v>
+      </c>
+      <c r="D2" t="str">
+        <v>t</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
         <v>Page</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D3" t="str">
         <v>description</v>
       </c>
-      <c r="O2" t="str" xml:space="preserve">
+      <c r="O3" t="str" xml:space="preserve">
         <v xml:space="preserve">
     # A systems pharmacology perspective on the clinical development
     of Fatty Acid amide hydrolase inhibitors for pain.
@@ -477,23 +488,6 @@
 </v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Const</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Vmax_NAT</v>
-      </c>
-      <c r="E3">
-        <v>300</v>
-      </c>
-      <c r="H3" t="str">
-        <v>nM/h</v>
-      </c>
-    </row>
     <row r="4">
       <c r="A4">
         <v>1</v>
@@ -502,13 +496,13 @@
         <v>Const</v>
       </c>
       <c r="D4" t="str">
-        <v>p_A</v>
+        <v>Vmax_NAT</v>
       </c>
       <c r="E4">
-        <v>0.051</v>
+        <v>300</v>
       </c>
       <c r="H4" t="str">
-        <v>UL</v>
+        <v>nM/h</v>
       </c>
     </row>
     <row r="5">
@@ -519,10 +513,10 @@
         <v>Const</v>
       </c>
       <c r="D5" t="str">
-        <v>p_O</v>
+        <v>p_A</v>
       </c>
       <c r="E5">
-        <v>0.098</v>
+        <v>0.051</v>
       </c>
       <c r="H5" t="str">
         <v>UL</v>
@@ -536,10 +530,10 @@
         <v>Const</v>
       </c>
       <c r="D6" t="str">
-        <v>p_P</v>
+        <v>p_O</v>
       </c>
       <c r="E6">
-        <v>0.615</v>
+        <v>0.098</v>
       </c>
       <c r="H6" t="str">
         <v>UL</v>
@@ -553,10 +547,10 @@
         <v>Const</v>
       </c>
       <c r="D7" t="str">
-        <v>p_L</v>
+        <v>p_P</v>
       </c>
       <c r="E7">
-        <v>0.016</v>
+        <v>0.615</v>
       </c>
       <c r="H7" t="str">
         <v>UL</v>
@@ -570,10 +564,10 @@
         <v>Const</v>
       </c>
       <c r="D8" t="str">
-        <v>p_S</v>
+        <v>p_L</v>
       </c>
       <c r="E8">
-        <v>0.191</v>
+        <v>0.016</v>
       </c>
       <c r="H8" t="str">
         <v>UL</v>
@@ -587,10 +581,10 @@
         <v>Const</v>
       </c>
       <c r="D9" t="str">
-        <v>a_NAT_A</v>
+        <v>p_S</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.191</v>
       </c>
       <c r="H9" t="str">
         <v>UL</v>
@@ -604,10 +598,10 @@
         <v>Const</v>
       </c>
       <c r="D10" t="str">
-        <v>a_NAT_O</v>
+        <v>a_NAT_A</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H10" t="str">
         <v>UL</v>
@@ -621,10 +615,10 @@
         <v>Const</v>
       </c>
       <c r="D11" t="str">
-        <v>a_NAT_P</v>
+        <v>a_NAT_O</v>
       </c>
       <c r="E11">
-        <v>0.42</v>
+        <v>13</v>
       </c>
       <c r="H11" t="str">
         <v>UL</v>
@@ -638,10 +632,10 @@
         <v>Const</v>
       </c>
       <c r="D12" t="str">
-        <v>a_NAT_L</v>
+        <v>a_NAT_P</v>
       </c>
       <c r="E12">
-        <v>8.6</v>
+        <v>0.42</v>
       </c>
       <c r="H12" t="str">
         <v>UL</v>
@@ -655,10 +649,10 @@
         <v>Const</v>
       </c>
       <c r="D13" t="str">
-        <v>a_NAT_S</v>
+        <v>a_NAT_L</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="H13" t="str">
         <v>UL</v>
@@ -672,10 +666,10 @@
         <v>Const</v>
       </c>
       <c r="D14" t="str">
-        <v>b_NAT_Brain</v>
+        <v>a_NAT_S</v>
       </c>
       <c r="E14">
-        <v>1.667</v>
+        <v>1</v>
       </c>
       <c r="H14" t="str">
         <v>UL</v>
@@ -689,10 +683,10 @@
         <v>Const</v>
       </c>
       <c r="D15" t="str">
-        <v>b_NAT_Pancreas</v>
+        <v>b_NAT_Brain</v>
       </c>
       <c r="E15">
-        <v>0.333</v>
+        <v>1.667</v>
       </c>
       <c r="H15" t="str">
         <v>UL</v>
@@ -706,10 +700,10 @@
         <v>Const</v>
       </c>
       <c r="D16" t="str">
-        <v>b_NAT_Kidney</v>
+        <v>b_NAT_Pancreas</v>
       </c>
       <c r="E16">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="H16" t="str">
         <v>UL</v>
@@ -723,10 +717,10 @@
         <v>Const</v>
       </c>
       <c r="D17" t="str">
-        <v>b_NAT_Heart</v>
+        <v>b_NAT_Kidney</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="H17" t="str">
         <v>UL</v>
@@ -740,10 +734,10 @@
         <v>Const</v>
       </c>
       <c r="D18" t="str">
-        <v>b_NAT_Lungs</v>
+        <v>b_NAT_Heart</v>
       </c>
       <c r="E18">
-        <v>0.033</v>
+        <v>1</v>
       </c>
       <c r="H18" t="str">
         <v>UL</v>
@@ -757,10 +751,10 @@
         <v>Const</v>
       </c>
       <c r="D19" t="str">
-        <v>b_NAT_Muscles</v>
+        <v>b_NAT_Lungs</v>
       </c>
       <c r="E19">
-        <v>0.333</v>
+        <v>0.033</v>
       </c>
       <c r="H19" t="str">
         <v>UL</v>
@@ -774,10 +768,10 @@
         <v>Const</v>
       </c>
       <c r="D20" t="str">
-        <v>b_NAT_Testis</v>
+        <v>b_NAT_Muscles</v>
       </c>
       <c r="E20">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="H20" t="str">
         <v>UL</v>
@@ -791,10 +785,10 @@
         <v>Const</v>
       </c>
       <c r="D21" t="str">
-        <v>b_NAT_Leucocytes</v>
+        <v>b_NAT_Testis</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="H21" t="str">
         <v>UL</v>
@@ -808,13 +802,13 @@
         <v>Const</v>
       </c>
       <c r="D22" t="str">
-        <v>k_NA_PE</v>
+        <v>b_NAT_Leucocytes</v>
       </c>
       <c r="E22">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="H22" t="str">
-        <v>1/h</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="23">
@@ -825,10 +819,10 @@
         <v>Const</v>
       </c>
       <c r="D23" t="str">
-        <v>k_NO_PE</v>
+        <v>k_NA_PE</v>
       </c>
       <c r="E23">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="H23" t="str">
         <v>1/h</v>
@@ -842,10 +836,10 @@
         <v>Const</v>
       </c>
       <c r="D24" t="str">
-        <v>k_NP_PE</v>
+        <v>k_NO_PE</v>
       </c>
       <c r="E24">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="H24" t="str">
         <v>1/h</v>
@@ -859,10 +853,10 @@
         <v>Const</v>
       </c>
       <c r="D25" t="str">
-        <v>k_NL_PE</v>
+        <v>k_NP_PE</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="H25" t="str">
         <v>1/h</v>
@@ -876,10 +870,10 @@
         <v>Const</v>
       </c>
       <c r="D26" t="str">
-        <v>k_NS_PE</v>
+        <v>k_NL_PE</v>
       </c>
       <c r="E26">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="H26" t="str">
         <v>1/h</v>
@@ -893,13 +887,13 @@
         <v>Const</v>
       </c>
       <c r="D27" t="str">
-        <v>Km_NA_PE</v>
+        <v>k_NS_PE</v>
       </c>
       <c r="E27">
-        <v>2800</v>
+        <v>280</v>
       </c>
       <c r="H27" t="str">
-        <v>nM</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="28">
@@ -910,10 +904,10 @@
         <v>Const</v>
       </c>
       <c r="D28" t="str">
-        <v>Km_NO_PE</v>
+        <v>Km_NA_PE</v>
       </c>
       <c r="E28">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H28" t="str">
         <v>nM</v>
@@ -927,10 +921,10 @@
         <v>Const</v>
       </c>
       <c r="D29" t="str">
-        <v>Km_NP_PE</v>
+        <v>Km_NO_PE</v>
       </c>
       <c r="E29">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="H29" t="str">
         <v>nM</v>
@@ -944,10 +938,10 @@
         <v>Const</v>
       </c>
       <c r="D30" t="str">
-        <v>Km_NL_PE</v>
+        <v>Km_NP_PE</v>
       </c>
       <c r="E30">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="H30" t="str">
         <v>nM</v>
@@ -961,10 +955,10 @@
         <v>Const</v>
       </c>
       <c r="D31" t="str">
-        <v>Km_NS_PE</v>
+        <v>Km_NL_PE</v>
       </c>
       <c r="E31">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="H31" t="str">
         <v>nM</v>
@@ -978,10 +972,10 @@
         <v>Const</v>
       </c>
       <c r="D32" t="str">
-        <v>Ki_A</v>
+        <v>Km_NS_PE</v>
       </c>
       <c r="E32">
-        <v>230</v>
+        <v>3400</v>
       </c>
       <c r="H32" t="str">
         <v>nM</v>
@@ -995,10 +989,10 @@
         <v>Const</v>
       </c>
       <c r="D33" t="str">
-        <v>Ki_O</v>
+        <v>Ki_A</v>
       </c>
       <c r="E33">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H33" t="str">
         <v>nM</v>
@@ -1012,10 +1006,10 @@
         <v>Const</v>
       </c>
       <c r="D34" t="str">
-        <v>Ki_P</v>
+        <v>Ki_O</v>
       </c>
       <c r="E34">
-        <v>6700</v>
+        <v>240</v>
       </c>
       <c r="H34" t="str">
         <v>nM</v>
@@ -1029,10 +1023,10 @@
         <v>Const</v>
       </c>
       <c r="D35" t="str">
-        <v>Ki_L</v>
+        <v>Ki_P</v>
       </c>
       <c r="E35">
-        <v>1000</v>
+        <v>6700</v>
       </c>
       <c r="H35" t="str">
         <v>nM</v>
@@ -1046,10 +1040,10 @@
         <v>Const</v>
       </c>
       <c r="D36" t="str">
-        <v>Ki_S</v>
+        <v>Ki_L</v>
       </c>
       <c r="E36">
-        <v>840</v>
+        <v>1000</v>
       </c>
       <c r="H36" t="str">
         <v>nM</v>
@@ -1063,13 +1057,13 @@
         <v>Const</v>
       </c>
       <c r="D37" t="str">
-        <v>kcat_FAAH</v>
+        <v>Ki_S</v>
       </c>
       <c r="E37">
-        <v>18000</v>
+        <v>840</v>
       </c>
       <c r="H37" t="str">
-        <v>1/h</v>
+        <v>nM</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1074,13 @@
         <v>Const</v>
       </c>
       <c r="D38" t="str">
-        <v>FAAH_t</v>
+        <v>kcat_FAAH</v>
       </c>
       <c r="E38">
-        <v>78</v>
+        <v>18000</v>
       </c>
       <c r="H38" t="str">
-        <v>nM</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1091,13 @@
         <v>Const</v>
       </c>
       <c r="D39" t="str">
-        <v>a_FAAH_A</v>
+        <v>FAAH_t</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="H39" t="str">
-        <v>UL</v>
+        <v>nM</v>
       </c>
     </row>
     <row r="40">
@@ -1114,10 +1108,10 @@
         <v>Const</v>
       </c>
       <c r="D40" t="str">
-        <v>a_FAAH_O</v>
+        <v>a_FAAH_A</v>
       </c>
       <c r="E40">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H40" t="str">
         <v>UL</v>
@@ -1131,10 +1125,10 @@
         <v>Const</v>
       </c>
       <c r="D41" t="str">
-        <v>a_FAAH_P</v>
+        <v>a_FAAH_O</v>
       </c>
       <c r="E41">
-        <v>37.8</v>
+        <v>5.7</v>
       </c>
       <c r="H41" t="str">
         <v>UL</v>
@@ -1148,10 +1142,10 @@
         <v>Const</v>
       </c>
       <c r="D42" t="str">
-        <v>a_FAAH_L</v>
+        <v>a_FAAH_P</v>
       </c>
       <c r="E42">
-        <v>1.15</v>
+        <v>37.8</v>
       </c>
       <c r="H42" t="str">
         <v>UL</v>
@@ -1165,10 +1159,10 @@
         <v>Const</v>
       </c>
       <c r="D43" t="str">
-        <v>a_FAAH_S</v>
+        <v>a_FAAH_L</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="H43" t="str">
         <v>UL</v>
@@ -1182,7 +1176,7 @@
         <v>Const</v>
       </c>
       <c r="D44" t="str">
-        <v>b_FAAH_Liver</v>
+        <v>a_FAAH_S</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1199,10 +1193,10 @@
         <v>Const</v>
       </c>
       <c r="D45" t="str">
-        <v>b_FAAH_Brain</v>
+        <v>b_FAAH_Liver</v>
       </c>
       <c r="E45">
-        <v>0.197</v>
+        <v>1</v>
       </c>
       <c r="H45" t="str">
         <v>UL</v>
@@ -1216,10 +1210,10 @@
         <v>Const</v>
       </c>
       <c r="D46" t="str">
-        <v>b_FAAH_Gut</v>
+        <v>b_FAAH_Brain</v>
       </c>
       <c r="E46">
-        <v>0.034</v>
+        <v>0.197</v>
       </c>
       <c r="H46" t="str">
         <v>UL</v>
@@ -1233,10 +1227,10 @@
         <v>Const</v>
       </c>
       <c r="D47" t="str">
-        <v>b_FAAH_Spleen</v>
+        <v>b_FAAH_Gut</v>
       </c>
       <c r="E47">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="H47" t="str">
         <v>UL</v>
@@ -1250,10 +1244,10 @@
         <v>Const</v>
       </c>
       <c r="D48" t="str">
-        <v>b_FAAH_Kidney</v>
+        <v>b_FAAH_Spleen</v>
       </c>
       <c r="E48">
-        <v>0.069</v>
+        <v>0.03</v>
       </c>
       <c r="H48" t="str">
         <v>UL</v>
@@ -1267,10 +1261,10 @@
         <v>Const</v>
       </c>
       <c r="D49" t="str">
-        <v>b_FAAH_Lungs</v>
+        <v>b_FAAH_Kidney</v>
       </c>
       <c r="E49">
-        <v>0.032</v>
+        <v>0.069</v>
       </c>
       <c r="H49" t="str">
         <v>UL</v>
@@ -1284,10 +1278,10 @@
         <v>Const</v>
       </c>
       <c r="D50" t="str">
-        <v>b_FAAH_Testis</v>
+        <v>b_FAAH_Lungs</v>
       </c>
       <c r="E50">
-        <v>0.126</v>
+        <v>0.032</v>
       </c>
       <c r="H50" t="str">
         <v>UL</v>
@@ -1301,10 +1295,10 @@
         <v>Const</v>
       </c>
       <c r="D51" t="str">
-        <v>b_FAAH_MEC</v>
+        <v>b_FAAH_Testis</v>
       </c>
       <c r="E51">
-        <v>0.137</v>
+        <v>0.126</v>
       </c>
       <c r="H51" t="str">
         <v>UL</v>
@@ -1318,10 +1312,10 @@
         <v>Const</v>
       </c>
       <c r="D52" t="str">
-        <v>b_FAAH_Leucocytes</v>
+        <v>b_FAAH_MEC</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.137</v>
       </c>
       <c r="H52" t="str">
         <v>UL</v>
@@ -1335,13 +1329,13 @@
         <v>Const</v>
       </c>
       <c r="D53" t="str">
-        <v>Km_FAAH_A</v>
+        <v>b_FAAH_Leucocytes</v>
       </c>
       <c r="E53">
-        <v>8200</v>
+        <v>0</v>
       </c>
       <c r="H53" t="str">
-        <v>nM</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="54">
@@ -1352,10 +1346,10 @@
         <v>Const</v>
       </c>
       <c r="D54" t="str">
-        <v>Km_FAAH_O</v>
+        <v>Km_FAAH_A</v>
       </c>
       <c r="E54">
-        <v>52200</v>
+        <v>8200</v>
       </c>
       <c r="H54" t="str">
         <v>nM</v>
@@ -1369,10 +1363,10 @@
         <v>Const</v>
       </c>
       <c r="D55" t="str">
-        <v>Km_FAAH_P</v>
+        <v>Km_FAAH_O</v>
       </c>
       <c r="E55">
-        <v>543000</v>
+        <v>52200</v>
       </c>
       <c r="H55" t="str">
         <v>nM</v>
@@ -1386,10 +1380,10 @@
         <v>Const</v>
       </c>
       <c r="D56" t="str">
-        <v>Km_FAAH_L</v>
+        <v>Km_FAAH_P</v>
       </c>
       <c r="E56">
-        <v>10800</v>
+        <v>543000</v>
       </c>
       <c r="H56" t="str">
         <v>nM</v>
@@ -1403,10 +1397,10 @@
         <v>Const</v>
       </c>
       <c r="D57" t="str">
-        <v>Km_FAAH_S</v>
+        <v>Km_FAAH_L</v>
       </c>
       <c r="E57">
-        <v>10000</v>
+        <v>10800</v>
       </c>
       <c r="H57" t="str">
         <v>nM</v>
@@ -1420,13 +1414,13 @@
         <v>Const</v>
       </c>
       <c r="D58" t="str">
-        <v>k_deg_FAAH</v>
+        <v>Km_FAAH_S</v>
       </c>
       <c r="E58">
-        <v>0.0051</v>
+        <v>10000</v>
       </c>
       <c r="H58" t="str">
-        <v>1/h</v>
+        <v>nM</v>
       </c>
     </row>
     <row r="59">
@@ -1437,13 +1431,13 @@
         <v>Const</v>
       </c>
       <c r="D59" t="str">
-        <v>k_inh</v>
+        <v>k_deg_FAAH</v>
       </c>
       <c r="E59">
-        <v>1.1</v>
+        <v>0.0051</v>
       </c>
       <c r="H59" t="str">
-        <v>1/h/nM</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="60">
@@ -1454,13 +1448,13 @@
         <v>Const</v>
       </c>
       <c r="D60" t="str">
-        <v>kcl_A</v>
+        <v>k_inh</v>
       </c>
       <c r="E60">
-        <v>1.74</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="str">
-        <v>1/h</v>
+        <v>1/h/nM</v>
       </c>
     </row>
     <row r="61">
@@ -1471,10 +1465,10 @@
         <v>Const</v>
       </c>
       <c r="D61" t="str">
-        <v>kcl_O</v>
+        <v>kcl_A</v>
       </c>
       <c r="E61">
-        <v>2.5</v>
+        <v>1.74</v>
       </c>
       <c r="H61" t="str">
         <v>1/h</v>
@@ -1488,10 +1482,10 @@
         <v>Const</v>
       </c>
       <c r="D62" t="str">
-        <v>kcl_P</v>
+        <v>kcl_O</v>
       </c>
       <c r="E62">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="str">
         <v>1/h</v>
@@ -1505,10 +1499,10 @@
         <v>Const</v>
       </c>
       <c r="D63" t="str">
-        <v>kcl_L</v>
+        <v>kcl_P</v>
       </c>
       <c r="E63">
-        <v>1.25</v>
+        <v>2.61</v>
       </c>
       <c r="H63" t="str">
         <v>1/h</v>
@@ -1522,10 +1516,10 @@
         <v>Const</v>
       </c>
       <c r="D64" t="str">
-        <v>kcl_S</v>
+        <v>kcl_L</v>
       </c>
       <c r="E64">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H64" t="str">
         <v>1/h</v>
@@ -1539,13 +1533,13 @@
         <v>Const</v>
       </c>
       <c r="D65" t="str">
-        <v>b_NAAA_Liver</v>
+        <v>kcl_S</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="str">
-        <v>UL</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="66">
@@ -1556,10 +1550,10 @@
         <v>Const</v>
       </c>
       <c r="D66" t="str">
-        <v>b_NAAA_Gut</v>
+        <v>b_NAAA_Liver</v>
       </c>
       <c r="E66">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="str">
         <v>UL</v>
@@ -1573,10 +1567,10 @@
         <v>Const</v>
       </c>
       <c r="D67" t="str">
-        <v>b_NAAA_Spleen</v>
+        <v>b_NAAA_Gut</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="H67" t="str">
         <v>UL</v>
@@ -1590,10 +1584,10 @@
         <v>Const</v>
       </c>
       <c r="D68" t="str">
-        <v>b_NAAA_Kidney</v>
+        <v>b_NAAA_Spleen</v>
       </c>
       <c r="E68">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="H68" t="str">
         <v>UL</v>
@@ -1607,10 +1601,10 @@
         <v>Const</v>
       </c>
       <c r="D69" t="str">
-        <v>b_NAAA_Heart</v>
+        <v>b_NAAA_Kidney</v>
       </c>
       <c r="E69">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="str">
         <v>UL</v>
@@ -1624,10 +1618,10 @@
         <v>Const</v>
       </c>
       <c r="D70" t="str">
-        <v>b_NAAA_Lungs</v>
+        <v>b_NAAA_Heart</v>
       </c>
       <c r="E70">
-        <v>14</v>
+        <v>0.2</v>
       </c>
       <c r="H70" t="str">
         <v>UL</v>
@@ -1641,10 +1635,10 @@
         <v>Const</v>
       </c>
       <c r="D71" t="str">
-        <v>b_NAAA_Thymus</v>
+        <v>b_NAAA_Lungs</v>
       </c>
       <c r="E71">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H71" t="str">
         <v>UL</v>
@@ -1658,10 +1652,10 @@
         <v>Const</v>
       </c>
       <c r="D72" t="str">
-        <v>b_NAAA_Testis</v>
+        <v>b_NAAA_Thymus</v>
       </c>
       <c r="E72">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H72" t="str">
         <v>UL</v>
@@ -1675,7 +1669,7 @@
         <v>Const</v>
       </c>
       <c r="D73" t="str">
-        <v>b_NAAA_Brain</v>
+        <v>b_NAAA_Testis</v>
       </c>
       <c r="E73">
         <v>0.6</v>
@@ -1692,13 +1686,13 @@
         <v>Const</v>
       </c>
       <c r="D74" t="str">
-        <v>M_A</v>
+        <v>b_NAAA_Brain</v>
       </c>
       <c r="E74">
-        <v>347.5</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="str">
-        <v>g/mole</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="75">
@@ -1709,10 +1703,10 @@
         <v>Const</v>
       </c>
       <c r="D75" t="str">
-        <v>M_O</v>
+        <v>M_A</v>
       </c>
       <c r="E75">
-        <v>325.5</v>
+        <v>347.5</v>
       </c>
       <c r="H75" t="str">
         <v>g/mole</v>
@@ -1726,10 +1720,10 @@
         <v>Const</v>
       </c>
       <c r="D76" t="str">
-        <v>M_P</v>
+        <v>M_O</v>
       </c>
       <c r="E76">
-        <v>299.5</v>
+        <v>325.5</v>
       </c>
       <c r="H76" t="str">
         <v>g/mole</v>
@@ -1743,10 +1737,10 @@
         <v>Const</v>
       </c>
       <c r="D77" t="str">
-        <v>M_L</v>
+        <v>M_P</v>
       </c>
       <c r="E77">
-        <v>323.5</v>
+        <v>299.5</v>
       </c>
       <c r="H77" t="str">
         <v>g/mole</v>
@@ -1760,10 +1754,10 @@
         <v>Const</v>
       </c>
       <c r="D78" t="str">
-        <v>M_S</v>
+        <v>M_L</v>
       </c>
       <c r="E78">
-        <v>321.5</v>
+        <v>323.5</v>
       </c>
       <c r="H78" t="str">
         <v>g/mole</v>
@@ -1777,13 +1771,13 @@
         <v>Const</v>
       </c>
       <c r="D79" t="str">
-        <v>Kd_CB1_A</v>
+        <v>M_S</v>
       </c>
       <c r="E79">
-        <v>239.2</v>
+        <v>321.5</v>
       </c>
       <c r="H79" t="str">
-        <v>nM</v>
+        <v>g/mole</v>
       </c>
     </row>
     <row r="80">
@@ -1794,10 +1788,10 @@
         <v>Const</v>
       </c>
       <c r="D80" t="str">
-        <v>Kd_AG2</v>
+        <v>Kd_CB1_A</v>
       </c>
       <c r="E80">
-        <v>3424</v>
+        <v>239.2</v>
       </c>
       <c r="H80" t="str">
         <v>nM</v>
@@ -1811,10 +1805,13 @@
         <v>Const</v>
       </c>
       <c r="D81" t="str">
-        <v>AG2_b</v>
+        <v>Kd_AG2</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>3424</v>
+      </c>
+      <c r="H81" t="str">
+        <v>nM</v>
       </c>
     </row>
     <row r="82">
@@ -1825,13 +1822,10 @@
         <v>Const</v>
       </c>
       <c r="D82" t="str">
-        <v>Dose</v>
+        <v>AG2_b</v>
       </c>
       <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="H82" t="str">
-        <v>mg</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1842,13 +1836,13 @@
         <v>Const</v>
       </c>
       <c r="D83" t="str">
-        <v>M_PF</v>
+        <v>Dose</v>
       </c>
       <c r="E83">
-        <v>455.4</v>
+        <v>10</v>
       </c>
       <c r="H83" t="str">
-        <v>g/mole</v>
+        <v>mg</v>
       </c>
     </row>
     <row r="84">
@@ -1859,13 +1853,13 @@
         <v>Const</v>
       </c>
       <c r="D84" t="str">
-        <v>Vss_PFM</v>
+        <v>M_PF</v>
       </c>
       <c r="E84">
-        <v>58.328</v>
+        <v>455.4</v>
       </c>
       <c r="H84" t="str">
-        <v>L</v>
+        <v>g/mole</v>
       </c>
     </row>
     <row r="85">
@@ -1876,13 +1870,13 @@
         <v>Const</v>
       </c>
       <c r="D85" t="str">
-        <v>Emax_PFM</v>
+        <v>Vss_PFM</v>
       </c>
       <c r="E85">
-        <v>0.773</v>
+        <v>58.328</v>
       </c>
       <c r="H85" t="str">
-        <v>UL</v>
+        <v>L</v>
       </c>
     </row>
     <row r="86">
@@ -1893,13 +1887,13 @@
         <v>Const</v>
       </c>
       <c r="D86" t="str">
-        <v>ED50</v>
+        <v>Emax_PFM</v>
       </c>
       <c r="E86">
-        <v>0.53</v>
+        <v>0.773</v>
       </c>
       <c r="H86" t="str">
-        <v>mg</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="87">
@@ -1910,13 +1904,13 @@
         <v>Const</v>
       </c>
       <c r="D87" t="str">
-        <v>kabs_PFM</v>
+        <v>ED50</v>
       </c>
       <c r="E87">
-        <v>2.2</v>
+        <v>0.53</v>
       </c>
       <c r="H87" t="str">
-        <v>1/h</v>
+        <v>mg</v>
       </c>
     </row>
     <row r="88">
@@ -1927,10 +1921,10 @@
         <v>Const</v>
       </c>
       <c r="D88" t="str">
-        <v>kout_PFM</v>
+        <v>kabs_PFM</v>
       </c>
       <c r="E88">
-        <v>0.18</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="str">
         <v>1/h</v>
@@ -1944,10 +1938,10 @@
         <v>Const</v>
       </c>
       <c r="D89" t="str">
-        <v>kin_PFM</v>
+        <v>kout_PFM</v>
       </c>
       <c r="E89">
-        <v>0.117</v>
+        <v>0.18</v>
       </c>
       <c r="H89" t="str">
         <v>1/h</v>
@@ -1961,10 +1955,10 @@
         <v>Const</v>
       </c>
       <c r="D90" t="str">
-        <v>klinear_PFM</v>
+        <v>kin_PFM</v>
       </c>
       <c r="E90">
-        <v>0.0803</v>
+        <v>0.117</v>
       </c>
       <c r="H90" t="str">
         <v>1/h</v>
@@ -1978,13 +1972,13 @@
         <v>Const</v>
       </c>
       <c r="D91" t="str">
-        <v>Vm_PFM</v>
+        <v>klinear_PFM</v>
       </c>
       <c r="E91">
-        <v>1511</v>
+        <v>0.0803</v>
       </c>
       <c r="H91" t="str">
-        <v>ng/h</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="92">
@@ -1995,13 +1989,13 @@
         <v>Const</v>
       </c>
       <c r="D92" t="str">
-        <v>Km_PFM</v>
+        <v>Vm_PFM</v>
       </c>
       <c r="E92">
-        <v>26.1</v>
+        <v>1511</v>
       </c>
       <c r="H92" t="str">
-        <v>ng/L</v>
+        <v>ng/h</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2006,13 @@
         <v>Const</v>
       </c>
       <c r="D93" t="str">
-        <v>R_PF</v>
+        <v>Km_PFM</v>
       </c>
       <c r="E93">
-        <v>0.6</v>
+        <v>26.1</v>
       </c>
       <c r="H93" t="str">
-        <v>UL</v>
-      </c>
-      <c r="M93" t="str">
-        <v>blood/plasma</v>
+        <v>ng/L</v>
       </c>
     </row>
     <row r="94">
@@ -2032,13 +2023,16 @@
         <v>Const</v>
       </c>
       <c r="D94" t="str">
-        <v>Kp_b_PF</v>
+        <v>R_PF</v>
       </c>
       <c r="E94">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="str">
         <v>UL</v>
+      </c>
+      <c r="M94" t="str">
+        <v>blood/plasma</v>
       </c>
     </row>
     <row r="95">
@@ -2049,7 +2043,7 @@
         <v>Const</v>
       </c>
       <c r="D95" t="str">
-        <v>Kp_m_PF</v>
+        <v>Kp_b_PF</v>
       </c>
       <c r="E95">
         <v>1.3</v>
@@ -2066,10 +2060,10 @@
         <v>Const</v>
       </c>
       <c r="D96" t="str">
-        <v>Kp_r_PF</v>
+        <v>Kp_m_PF</v>
       </c>
       <c r="E96">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="str">
         <v>UL</v>
@@ -2080,19 +2074,16 @@
         <v>1</v>
       </c>
       <c r="C97" t="str">
-        <v>Compartment</v>
+        <v>Const</v>
       </c>
       <c r="D97" t="str">
-        <v>GUT</v>
-      </c>
-      <c r="F97" t="str">
-        <v>1</v>
+        <v>Kp_r_PF</v>
+      </c>
+      <c r="E97">
+        <v>1.5</v>
       </c>
       <c r="H97" t="str">
-        <v>L</v>
-      </c>
-      <c r="N97" t="str">
-        <v>Gut compartment</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2094,16 @@
         <v>Compartment</v>
       </c>
       <c r="D98" t="str">
-        <v>PLASMA</v>
+        <v>GUT</v>
       </c>
       <c r="F98" t="str">
-        <v>2.649</v>
+        <v>1</v>
       </c>
       <c r="H98" t="str">
         <v>L</v>
       </c>
       <c r="N98" t="str">
-        <v>Blood plasma compartment</v>
+        <v>Gut compartment</v>
       </c>
     </row>
     <row r="99">
@@ -2123,16 +2114,16 @@
         <v>Compartment</v>
       </c>
       <c r="D99" t="str">
-        <v>ROB</v>
+        <v>PLASMA</v>
       </c>
       <c r="F99" t="str">
-        <v>65.3</v>
+        <v>2.649</v>
       </c>
       <c r="H99" t="str">
         <v>L</v>
       </c>
       <c r="N99" t="str">
-        <v>Compartment representing "rest of body"</v>
+        <v>Blood plasma compartment</v>
       </c>
     </row>
     <row r="100">
@@ -2140,25 +2131,19 @@
         <v>1</v>
       </c>
       <c r="C100" t="str">
-        <v>Species</v>
+        <v>Compartment</v>
       </c>
       <c r="D100" t="str">
-        <v>PFM_gut</v>
+        <v>ROB</v>
       </c>
       <c r="F100" t="str">
-        <v>0</v>
+        <v>65.3</v>
       </c>
       <c r="H100" t="str">
-        <v>ng</v>
-      </c>
-      <c r="I100" t="str">
-        <v>GUT</v>
-      </c>
-      <c r="J100" t="str">
-        <v>true</v>
-      </c>
-      <c r="P100" t="str">
-        <v>PFM_gut + dose_amount</v>
+        <v>L</v>
+      </c>
+      <c r="N100" t="str">
+        <v>Compartment representing "rest of body"</v>
       </c>
     </row>
     <row r="101">
@@ -2169,7 +2154,7 @@
         <v>Species</v>
       </c>
       <c r="D101" t="str">
-        <v>PFM_p</v>
+        <v>PFM_gut</v>
       </c>
       <c r="F101" t="str">
         <v>0</v>
@@ -2178,13 +2163,13 @@
         <v>ng</v>
       </c>
       <c r="I101" t="str">
-        <v>PLASMA</v>
+        <v>GUT</v>
       </c>
       <c r="J101" t="str">
         <v>true</v>
       </c>
-      <c r="Q101" t="str">
-        <v>true</v>
+      <c r="P101" t="str">
+        <v>PFM_gut + dose_amount</v>
       </c>
     </row>
     <row r="102">
@@ -2195,7 +2180,7 @@
         <v>Species</v>
       </c>
       <c r="D102" t="str">
-        <v>PFM_r</v>
+        <v>PFM_p</v>
       </c>
       <c r="F102" t="str">
         <v>0</v>
@@ -2204,27 +2189,36 @@
         <v>ng</v>
       </c>
       <c r="I102" t="str">
-        <v>ROB</v>
+        <v>PLASMA</v>
       </c>
       <c r="J102" t="str">
         <v>true</v>
       </c>
+      <c r="Q102" t="str">
+        <v>true</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="C103" t="str">
-        <v>Record</v>
+        <v>Species</v>
       </c>
       <c r="D103" t="str">
-        <v>F_PFM</v>
-      </c>
-      <c r="G103" t="str">
-        <v>Emax_PFM * Dose / (ED50 + Dose)</v>
+        <v>PFM_r</v>
+      </c>
+      <c r="F103" t="str">
+        <v>0</v>
       </c>
       <c r="H103" t="str">
-        <v>UL</v>
+        <v>ng</v>
+      </c>
+      <c r="I103" t="str">
+        <v>ROB</v>
+      </c>
+      <c r="J103" t="str">
+        <v>true</v>
       </c>
     </row>
     <row r="104">
@@ -2232,16 +2226,16 @@
         <v>1</v>
       </c>
       <c r="C104" t="str">
-        <v>Const</v>
+        <v>Record</v>
       </c>
       <c r="D104" t="str">
-        <v>m_per_n</v>
-      </c>
-      <c r="E104">
-        <v>1000000</v>
+        <v>F_PFM</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Emax_PFM * Dose / (ED50 + Dose)</v>
       </c>
       <c r="H104" t="str">
-        <v>(1e-6 UL)</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="105">
@@ -2249,16 +2243,16 @@
         <v>1</v>
       </c>
       <c r="C105" t="str">
-        <v>Record</v>
+        <v>Const</v>
       </c>
       <c r="D105" t="str">
-        <v>dose_amount</v>
-      </c>
-      <c r="G105" t="str">
-        <v>F_PFM * m_per_n * Dose * F_PFM</v>
+        <v>m_per_n</v>
+      </c>
+      <c r="E105">
+        <v>1000000</v>
       </c>
       <c r="H105" t="str">
-        <v>ng</v>
+        <v>(1e-6 UL)</v>
       </c>
     </row>
     <row r="106">
@@ -2269,13 +2263,13 @@
         <v>Record</v>
       </c>
       <c r="D106" t="str">
-        <v>PF_p</v>
+        <v>dose_amount</v>
       </c>
       <c r="G106" t="str">
-        <v>PFM_p / M_PF / Vss_PFM</v>
+        <v>F_PFM * m_per_n * Dose * F_PFM</v>
       </c>
       <c r="H106" t="str">
-        <v>nM</v>
+        <v>ng</v>
       </c>
     </row>
     <row r="107">
@@ -2286,10 +2280,10 @@
         <v>Record</v>
       </c>
       <c r="D107" t="str">
-        <v>PF_b</v>
+        <v>PF_p</v>
       </c>
       <c r="G107" t="str">
-        <v>PF_p * Kp_b_PF</v>
+        <v>PFM_p / M_PF / Vss_PFM</v>
       </c>
       <c r="H107" t="str">
         <v>nM</v>
@@ -2303,10 +2297,10 @@
         <v>Record</v>
       </c>
       <c r="D108" t="str">
-        <v>PF_r</v>
+        <v>PF_b</v>
       </c>
       <c r="G108" t="str">
-        <v>PF_p * Kp_r_PF</v>
+        <v>PF_p * Kp_b_PF</v>
       </c>
       <c r="H108" t="str">
         <v>nM</v>
@@ -2320,10 +2314,10 @@
         <v>Record</v>
       </c>
       <c r="D109" t="str">
-        <v>PF_m</v>
+        <v>PF_r</v>
       </c>
       <c r="G109" t="str">
-        <v>PF_p * Kp_m_PF</v>
+        <v>PF_p * Kp_r_PF</v>
       </c>
       <c r="H109" t="str">
         <v>nM</v>
@@ -2334,22 +2328,16 @@
         <v>1</v>
       </c>
       <c r="C110" t="str">
-        <v>Reaction</v>
+        <v>Record</v>
       </c>
       <c r="D110" t="str">
-        <v>absorp</v>
+        <v>PF_m</v>
       </c>
       <c r="G110" t="str">
-        <v>kabs_PFM * PFM_gut</v>
+        <v>PF_p * Kp_m_PF</v>
       </c>
       <c r="H110" t="str">
-        <v>ng/h</v>
-      </c>
-      <c r="K110" t="str">
-        <v>PFM_gut = PFM_p</v>
-      </c>
-      <c r="R110" t="str">
-        <v>false</v>
+        <v>nM</v>
       </c>
     </row>
     <row r="111">
@@ -2360,16 +2348,19 @@
         <v>Reaction</v>
       </c>
       <c r="D111" t="str">
-        <v>dist</v>
+        <v>absorp</v>
       </c>
       <c r="G111" t="str">
-        <v>kout_PFM * PFM_p - kin_PFM * PFM_r</v>
+        <v>kabs_PFM * PFM_gut</v>
       </c>
       <c r="H111" t="str">
         <v>ng/h</v>
       </c>
       <c r="K111" t="str">
-        <v>PFM_p = PFM_r</v>
+        <v>PFM_gut = PFM_p</v>
+      </c>
+      <c r="R111" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="112">
@@ -2380,19 +2371,16 @@
         <v>Reaction</v>
       </c>
       <c r="D112" t="str">
-        <v>elim</v>
+        <v>dist</v>
       </c>
       <c r="G112" t="str">
-        <v>klinear_PFM * PFM_p + (Vm_PFM * PFM_p / Vss_PFM) / (Km_PFM + PFM_p / Vss_PFM)</v>
+        <v>kout_PFM * PFM_p - kin_PFM * PFM_r</v>
       </c>
       <c r="H112" t="str">
         <v>ng/h</v>
       </c>
       <c r="K112" t="str">
-        <v xml:space="preserve">PFM_p = </v>
-      </c>
-      <c r="R112" t="str">
-        <v>false</v>
+        <v>PFM_p = PFM_r</v>
       </c>
     </row>
     <row r="113">
@@ -2400,13 +2388,22 @@
         <v>1</v>
       </c>
       <c r="C113" t="str">
-        <v>TimeSwitcher</v>
+        <v>Reaction</v>
       </c>
       <c r="D113" t="str">
-        <v>evt1</v>
-      </c>
-      <c r="S113">
-        <v>0</v>
+        <v>elim</v>
+      </c>
+      <c r="G113" t="str">
+        <v>klinear_PFM * PFM_p + (Vm_PFM * PFM_p / Vss_PFM) / (Km_PFM + PFM_p / Vss_PFM)</v>
+      </c>
+      <c r="H113" t="str">
+        <v>ng/h</v>
+      </c>
+      <c r="K113" t="str">
+        <v xml:space="preserve">PFM_p = </v>
+      </c>
+      <c r="R113" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="114">
@@ -2414,16 +2411,13 @@
         <v>1</v>
       </c>
       <c r="C114" t="str">
-        <v>Const</v>
+        <v>TimeSwitcher</v>
       </c>
       <c r="D114" t="str">
-        <v>PLD_b</v>
-      </c>
-      <c r="E114">
-        <v>10000000</v>
-      </c>
-      <c r="H114" t="str">
-        <v>nM</v>
+        <v>evt1</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2431,22 +2425,16 @@
         <v>1</v>
       </c>
       <c r="C115" t="str">
-        <v>Compartment</v>
+        <v>Const</v>
       </c>
       <c r="D115" t="str">
-        <v>BRAIN</v>
-      </c>
-      <c r="F115" t="str">
-        <v>1.45</v>
+        <v>PLD_b</v>
+      </c>
+      <c r="E115">
+        <v>10000000</v>
       </c>
       <c r="H115" t="str">
-        <v>L</v>
-      </c>
-      <c r="N115" t="str">
-        <v>Volume of brain</v>
-      </c>
-      <c r="T115" t="str">
-        <v>measured</v>
+        <v>nM</v>
       </c>
     </row>
     <row r="116">
@@ -2454,19 +2442,22 @@
         <v>1</v>
       </c>
       <c r="C116" t="str">
-        <v>Species</v>
+        <v>Compartment</v>
       </c>
       <c r="D116" t="str">
-        <v>A_b</v>
+        <v>BRAIN</v>
       </c>
       <c r="F116" t="str">
-        <v>0.7493309</v>
+        <v>1.45</v>
       </c>
       <c r="H116" t="str">
-        <v>nM</v>
-      </c>
-      <c r="I116" t="str">
-        <v>BRAIN</v>
+        <v>L</v>
+      </c>
+      <c r="N116" t="str">
+        <v>Volume of brain</v>
+      </c>
+      <c r="T116" t="str">
+        <v>measured</v>
       </c>
     </row>
     <row r="117">
@@ -2477,10 +2468,10 @@
         <v>Species</v>
       </c>
       <c r="D117" t="str">
-        <v>O_b</v>
+        <v>A_b</v>
       </c>
       <c r="F117" t="str">
-        <v>20.77858</v>
+        <v>0.7493309</v>
       </c>
       <c r="H117" t="str">
         <v>nM</v>
@@ -2497,10 +2488,10 @@
         <v>Species</v>
       </c>
       <c r="D118" t="str">
-        <v>P_b</v>
+        <v>O_b</v>
       </c>
       <c r="F118" t="str">
-        <v>6.541209</v>
+        <v>20.77858</v>
       </c>
       <c r="H118" t="str">
         <v>nM</v>
@@ -2517,10 +2508,10 @@
         <v>Species</v>
       </c>
       <c r="D119" t="str">
-        <v>L_b</v>
+        <v>P_b</v>
       </c>
       <c r="F119" t="str">
-        <v>2.319571</v>
+        <v>6.541209</v>
       </c>
       <c r="H119" t="str">
         <v>nM</v>
@@ -2537,10 +2528,10 @@
         <v>Species</v>
       </c>
       <c r="D120" t="str">
-        <v>S_b</v>
+        <v>L_b</v>
       </c>
       <c r="F120" t="str">
-        <v>3.427807</v>
+        <v>2.319571</v>
       </c>
       <c r="H120" t="str">
         <v>nM</v>
@@ -2557,10 +2548,10 @@
         <v>Species</v>
       </c>
       <c r="D121" t="str">
-        <v>NAPE_b</v>
+        <v>S_b</v>
       </c>
       <c r="F121" t="str">
-        <v>3.879041e-5</v>
+        <v>3.427807</v>
       </c>
       <c r="H121" t="str">
         <v>nM</v>
@@ -2577,10 +2568,10 @@
         <v>Species</v>
       </c>
       <c r="D122" t="str">
-        <v>NOPE_b</v>
+        <v>NAPE_b</v>
       </c>
       <c r="F122" t="str">
-        <v>8.814287e-4</v>
+        <v>3.879041e-5</v>
       </c>
       <c r="H122" t="str">
         <v>nM</v>
@@ -2597,10 +2588,10 @@
         <v>Species</v>
       </c>
       <c r="D123" t="str">
-        <v>NPPE_b</v>
+        <v>NOPE_b</v>
       </c>
       <c r="F123" t="str">
-        <v>1.732296e-4</v>
+        <v>8.814287e-4</v>
       </c>
       <c r="H123" t="str">
         <v>nM</v>
@@ -2617,10 +2608,10 @@
         <v>Species</v>
       </c>
       <c r="D124" t="str">
-        <v>NLPE_b</v>
+        <v>NPPE_b</v>
       </c>
       <c r="F124" t="str">
-        <v>7.550331e-5</v>
+        <v>1.732296e-4</v>
       </c>
       <c r="H124" t="str">
         <v>nM</v>
@@ -2637,10 +2628,10 @@
         <v>Species</v>
       </c>
       <c r="D125" t="str">
-        <v>NSPE_b</v>
+        <v>NLPE_b</v>
       </c>
       <c r="F125" t="str">
-        <v>1.272629e-4</v>
+        <v>7.550331e-5</v>
       </c>
       <c r="H125" t="str">
         <v>nM</v>
@@ -2657,10 +2648,10 @@
         <v>Species</v>
       </c>
       <c r="D126" t="str">
-        <v>FAAH_b</v>
+        <v>NSPE_b</v>
       </c>
       <c r="F126" t="str">
-        <v>15.366</v>
+        <v>1.272629e-4</v>
       </c>
       <c r="H126" t="str">
         <v>nM</v>
@@ -2677,10 +2668,10 @@
         <v>Species</v>
       </c>
       <c r="D127" t="str">
-        <v>FAAHinh_b</v>
+        <v>FAAH_b</v>
       </c>
       <c r="F127" t="str">
-        <v>0</v>
+        <v>15.366</v>
       </c>
       <c r="H127" t="str">
         <v>nM</v>
@@ -2694,16 +2685,19 @@
         <v>1</v>
       </c>
       <c r="C128" t="str">
-        <v>Record</v>
+        <v>Species</v>
       </c>
       <c r="D128" t="str">
-        <v>FAAH_D_b</v>
-      </c>
-      <c r="G128" t="str">
-        <v>1 + A_b / Km_FAAH_A + O_b / Km_FAAH_O + P_b / Km_FAAH_P + L_b / Km_FAAH_L + S_b / Km_FAAH_S</v>
+        <v>FAAHinh_b</v>
+      </c>
+      <c r="F128" t="str">
+        <v>0</v>
       </c>
       <c r="H128" t="str">
-        <v>UL</v>
+        <v>nM</v>
+      </c>
+      <c r="I128" t="str">
+        <v>BRAIN</v>
       </c>
     </row>
     <row r="129">
@@ -2711,25 +2705,16 @@
         <v>1</v>
       </c>
       <c r="C129" t="str">
-        <v>Reaction</v>
+        <v>Record</v>
       </c>
       <c r="D129" t="str">
-        <v>vA_degr_b</v>
+        <v>FAAH_D_b</v>
       </c>
       <c r="G129" t="str">
-        <v>BRAIN * FAAH_b * kcat_FAAH * a_FAAH_A * A_b / (Km_FAAH_A * FAAH_D_b)</v>
+        <v>1 + A_b / Km_FAAH_A + O_b / Km_FAAH_O + P_b / Km_FAAH_P + L_b / Km_FAAH_L + S_b / Km_FAAH_S</v>
       </c>
       <c r="H129" t="str">
-        <v>nmole/h</v>
-      </c>
-      <c r="K129" t="str">
-        <v xml:space="preserve">A_b = </v>
-      </c>
-      <c r="L129" t="str">
-        <v>FAAH_b</v>
-      </c>
-      <c r="R129" t="str">
-        <v>false</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="130">
@@ -2740,16 +2725,16 @@
         <v>Reaction</v>
       </c>
       <c r="D130" t="str">
-        <v>vO_degr_b</v>
+        <v>vA_degr_b</v>
       </c>
       <c r="G130" t="str">
-        <v>BRAIN * FAAH_b * kcat_FAAH * a_FAAH_O * O_b / (Km_FAAH_O * FAAH_D_b)</v>
+        <v>BRAIN * FAAH_b * kcat_FAAH * a_FAAH_A * A_b / (Km_FAAH_A * FAAH_D_b)</v>
       </c>
       <c r="H130" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K130" t="str">
-        <v xml:space="preserve">O_b = </v>
+        <v xml:space="preserve">A_b = </v>
       </c>
       <c r="L130" t="str">
         <v>FAAH_b</v>
@@ -2766,16 +2751,16 @@
         <v>Reaction</v>
       </c>
       <c r="D131" t="str">
-        <v>vP_degr_b</v>
+        <v>vO_degr_b</v>
       </c>
       <c r="G131" t="str">
-        <v>BRAIN * FAAH_b * kcat_FAAH * a_FAAH_P * P_b / (Km_FAAH_P * FAAH_D_b)</v>
+        <v>BRAIN * FAAH_b * kcat_FAAH * a_FAAH_O * O_b / (Km_FAAH_O * FAAH_D_b)</v>
       </c>
       <c r="H131" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K131" t="str">
-        <v xml:space="preserve">P_b = </v>
+        <v xml:space="preserve">O_b = </v>
       </c>
       <c r="L131" t="str">
         <v>FAAH_b</v>
@@ -2792,16 +2777,16 @@
         <v>Reaction</v>
       </c>
       <c r="D132" t="str">
-        <v>vL_degr_b</v>
+        <v>vP_degr_b</v>
       </c>
       <c r="G132" t="str">
-        <v>BRAIN * FAAH_b * kcat_FAAH * a_FAAH_L * L_b / (Km_FAAH_L * FAAH_D_b)</v>
+        <v>BRAIN * FAAH_b * kcat_FAAH * a_FAAH_P * P_b / (Km_FAAH_P * FAAH_D_b)</v>
       </c>
       <c r="H132" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K132" t="str">
-        <v xml:space="preserve">L_b = </v>
+        <v xml:space="preserve">P_b = </v>
       </c>
       <c r="L132" t="str">
         <v>FAAH_b</v>
@@ -2818,16 +2803,16 @@
         <v>Reaction</v>
       </c>
       <c r="D133" t="str">
-        <v>vS_degr_b</v>
+        <v>vL_degr_b</v>
       </c>
       <c r="G133" t="str">
-        <v>BRAIN * FAAH_b * kcat_FAAH * a_FAAH_S * S_b / (Km_FAAH_S * FAAH_D_b)</v>
+        <v>BRAIN * FAAH_b * kcat_FAAH * a_FAAH_L * L_b / (Km_FAAH_L * FAAH_D_b)</v>
       </c>
       <c r="H133" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K133" t="str">
-        <v xml:space="preserve">S_b = </v>
+        <v xml:space="preserve">L_b = </v>
       </c>
       <c r="L133" t="str">
         <v>FAAH_b</v>
@@ -2844,16 +2829,19 @@
         <v>Reaction</v>
       </c>
       <c r="D134" t="str">
-        <v>vNAPE_syn_b</v>
+        <v>vS_degr_b</v>
       </c>
       <c r="G134" t="str">
-        <v>BRAIN * Vmax_NAT * p_A * a_NAT_A * b_NAT_Brain</v>
+        <v>BRAIN * FAAH_b * kcat_FAAH * a_FAAH_S * S_b / (Km_FAAH_S * FAAH_D_b)</v>
       </c>
       <c r="H134" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K134" t="str">
-        <v xml:space="preserve"> = NAPE_b</v>
+        <v xml:space="preserve">S_b = </v>
+      </c>
+      <c r="L134" t="str">
+        <v>FAAH_b</v>
       </c>
       <c r="R134" t="str">
         <v>false</v>
@@ -2867,16 +2855,16 @@
         <v>Reaction</v>
       </c>
       <c r="D135" t="str">
-        <v>vNOPE_syn_b</v>
+        <v>vNAPE_syn_b</v>
       </c>
       <c r="G135" t="str">
-        <v>BRAIN * Vmax_NAT * p_O * a_NAT_O * b_NAT_Brain</v>
+        <v>BRAIN * Vmax_NAT * p_A * a_NAT_A * b_NAT_Brain</v>
       </c>
       <c r="H135" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K135" t="str">
-        <v xml:space="preserve"> = NOPE_b</v>
+        <v xml:space="preserve"> = NAPE_b</v>
       </c>
       <c r="R135" t="str">
         <v>false</v>
@@ -2890,16 +2878,16 @@
         <v>Reaction</v>
       </c>
       <c r="D136" t="str">
-        <v>vNPPE_syn_b</v>
+        <v>vNOPE_syn_b</v>
       </c>
       <c r="G136" t="str">
-        <v>BRAIN * Vmax_NAT * p_P * a_NAT_P * b_NAT_Brain</v>
+        <v>BRAIN * Vmax_NAT * p_O * a_NAT_O * b_NAT_Brain</v>
       </c>
       <c r="H136" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K136" t="str">
-        <v xml:space="preserve"> = NPPE_b</v>
+        <v xml:space="preserve"> = NOPE_b</v>
       </c>
       <c r="R136" t="str">
         <v>false</v>
@@ -2913,16 +2901,16 @@
         <v>Reaction</v>
       </c>
       <c r="D137" t="str">
-        <v>vNLPE_syn_b</v>
+        <v>vNPPE_syn_b</v>
       </c>
       <c r="G137" t="str">
-        <v>BRAIN * Vmax_NAT * p_L * a_NAT_L * b_NAT_Brain</v>
+        <v>BRAIN * Vmax_NAT * p_P * a_NAT_P * b_NAT_Brain</v>
       </c>
       <c r="H137" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K137" t="str">
-        <v xml:space="preserve"> = NLPE_b</v>
+        <v xml:space="preserve"> = NPPE_b</v>
       </c>
       <c r="R137" t="str">
         <v>false</v>
@@ -2936,16 +2924,16 @@
         <v>Reaction</v>
       </c>
       <c r="D138" t="str">
-        <v>vNSPE_syn_b</v>
+        <v>vNLPE_syn_b</v>
       </c>
       <c r="G138" t="str">
-        <v>BRAIN * Vmax_NAT * p_S * a_NAT_S * b_NAT_Brain</v>
+        <v>BRAIN * Vmax_NAT * p_L * a_NAT_L * b_NAT_Brain</v>
       </c>
       <c r="H138" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K138" t="str">
-        <v xml:space="preserve"> = NSPE_b</v>
+        <v xml:space="preserve"> = NLPE_b</v>
       </c>
       <c r="R138" t="str">
         <v>false</v>
@@ -2956,16 +2944,22 @@
         <v>1</v>
       </c>
       <c r="C139" t="str">
-        <v>Record</v>
+        <v>Reaction</v>
       </c>
       <c r="D139" t="str">
-        <v>slag1_b</v>
+        <v>vNSPE_syn_b</v>
       </c>
       <c r="G139" t="str">
-        <v>NAPE_b / Km_NA_PE + NOPE_b / Km_NO_PE + NPPE_b / Km_NP_PE + NLPE_b / Km_NL_PE + NSPE_b / Km_NS_PE</v>
+        <v>BRAIN * Vmax_NAT * p_S * a_NAT_S * b_NAT_Brain</v>
       </c>
       <c r="H139" t="str">
-        <v>UL</v>
+        <v>nmole/h</v>
+      </c>
+      <c r="K139" t="str">
+        <v xml:space="preserve"> = NSPE_b</v>
+      </c>
+      <c r="R139" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="140">
@@ -2976,10 +2970,10 @@
         <v>Record</v>
       </c>
       <c r="D140" t="str">
-        <v>slag2_b</v>
+        <v>slag1_b</v>
       </c>
       <c r="G140" t="str">
-        <v>A_b / Ki_A + O_b / Ki_O + P_b / Ki_P + L_b / Ki_L + S_b / Ki_S</v>
+        <v>NAPE_b / Km_NA_PE + NOPE_b / Km_NO_PE + NPPE_b / Km_NP_PE + NLPE_b / Km_NL_PE + NSPE_b / Km_NS_PE</v>
       </c>
       <c r="H140" t="str">
         <v>UL</v>
@@ -2993,10 +2987,10 @@
         <v>Record</v>
       </c>
       <c r="D141" t="str">
-        <v>den_b</v>
+        <v>slag2_b</v>
       </c>
       <c r="G141" t="str">
-        <v>1 + slag1_b + slag2_b</v>
+        <v>A_b / Ki_A + O_b / Ki_O + P_b / Ki_P + L_b / Ki_L + S_b / Ki_S</v>
       </c>
       <c r="H141" t="str">
         <v>UL</v>
@@ -3007,22 +3001,16 @@
         <v>1</v>
       </c>
       <c r="C142" t="str">
-        <v>Reaction</v>
+        <v>Record</v>
       </c>
       <c r="D142" t="str">
-        <v>vA_syn_b</v>
+        <v>den_b</v>
       </c>
       <c r="G142" t="str">
-        <v>BRAIN * PLD_b * k_NA_PE * NAPE_b / Km_NA_PE / den_b</v>
+        <v>1 + slag1_b + slag2_b</v>
       </c>
       <c r="H142" t="str">
-        <v>nmole/h</v>
-      </c>
-      <c r="K142" t="str">
-        <v>NAPE_b = A_b</v>
-      </c>
-      <c r="R142" t="str">
-        <v>false</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="143">
@@ -3033,16 +3021,16 @@
         <v>Reaction</v>
       </c>
       <c r="D143" t="str">
-        <v>vO_syn_b</v>
+        <v>vA_syn_b</v>
       </c>
       <c r="G143" t="str">
-        <v>BRAIN * PLD_b * k_NO_PE * NOPE_b / Km_NO_PE / den_b</v>
+        <v>BRAIN * PLD_b * k_NA_PE * NAPE_b / Km_NA_PE / den_b</v>
       </c>
       <c r="H143" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K143" t="str">
-        <v>NOPE_b = O_b</v>
+        <v>NAPE_b = A_b</v>
       </c>
       <c r="R143" t="str">
         <v>false</v>
@@ -3056,16 +3044,16 @@
         <v>Reaction</v>
       </c>
       <c r="D144" t="str">
-        <v>vP_syn_b</v>
+        <v>vO_syn_b</v>
       </c>
       <c r="G144" t="str">
-        <v>BRAIN * PLD_b * k_NP_PE * NPPE_b / Km_NP_PE / den_b</v>
+        <v>BRAIN * PLD_b * k_NO_PE * NOPE_b / Km_NO_PE / den_b</v>
       </c>
       <c r="H144" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K144" t="str">
-        <v>NPPE_b = P_b</v>
+        <v>NOPE_b = O_b</v>
       </c>
       <c r="R144" t="str">
         <v>false</v>
@@ -3079,16 +3067,16 @@
         <v>Reaction</v>
       </c>
       <c r="D145" t="str">
-        <v>vL_syn_b</v>
+        <v>vP_syn_b</v>
       </c>
       <c r="G145" t="str">
-        <v>BRAIN * PLD_b * k_NL_PE * NLPE_b / Km_NL_PE / den_b</v>
+        <v>BRAIN * PLD_b * k_NP_PE * NPPE_b / Km_NP_PE / den_b</v>
       </c>
       <c r="H145" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K145" t="str">
-        <v>NLPE_b = L_b</v>
+        <v>NPPE_b = P_b</v>
       </c>
       <c r="R145" t="str">
         <v>false</v>
@@ -3102,16 +3090,16 @@
         <v>Reaction</v>
       </c>
       <c r="D146" t="str">
-        <v>vS_syn_b</v>
+        <v>vL_syn_b</v>
       </c>
       <c r="G146" t="str">
-        <v>BRAIN * PLD_b * k_NS_PE * NSPE_b / Km_NS_PE / den_b</v>
+        <v>BRAIN * PLD_b * k_NL_PE * NLPE_b / Km_NL_PE / den_b</v>
       </c>
       <c r="H146" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K146" t="str">
-        <v>NSPE_b = S_b</v>
+        <v>NLPE_b = L_b</v>
       </c>
       <c r="R146" t="str">
         <v>false</v>
@@ -3125,16 +3113,16 @@
         <v>Reaction</v>
       </c>
       <c r="D147" t="str">
-        <v>vFAAH_syn_b</v>
+        <v>vS_syn_b</v>
       </c>
       <c r="G147" t="str">
-        <v>BRAIN * FAAH_t * b_FAAH_Brain * k_deg_FAAH</v>
+        <v>BRAIN * PLD_b * k_NS_PE * NSPE_b / Km_NS_PE / den_b</v>
       </c>
       <c r="H147" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K147" t="str">
-        <v xml:space="preserve"> = FAAH_b</v>
+        <v>NSPE_b = S_b</v>
       </c>
       <c r="R147" t="str">
         <v>false</v>
@@ -3148,16 +3136,16 @@
         <v>Reaction</v>
       </c>
       <c r="D148" t="str">
-        <v>vFAAH_degr_b</v>
+        <v>vFAAH_syn_b</v>
       </c>
       <c r="G148" t="str">
-        <v>BRAIN * k_deg_FAAH * FAAH_b</v>
+        <v>BRAIN * FAAH_t * b_FAAH_Brain * k_deg_FAAH</v>
       </c>
       <c r="H148" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K148" t="str">
-        <v xml:space="preserve">FAAH_b = </v>
+        <v xml:space="preserve"> = FAAH_b</v>
       </c>
       <c r="R148" t="str">
         <v>false</v>
@@ -3171,16 +3159,16 @@
         <v>Reaction</v>
       </c>
       <c r="D149" t="str">
-        <v>vFAAH_inh_b</v>
+        <v>vFAAH_degr_b</v>
       </c>
       <c r="G149" t="str">
-        <v>BRAIN * k_inh * FAAH_b * PF_b</v>
+        <v>BRAIN * k_deg_FAAH * FAAH_b</v>
       </c>
       <c r="H149" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K149" t="str">
-        <v>FAAH_b = FAAHinh_b</v>
+        <v xml:space="preserve">FAAH_b = </v>
       </c>
       <c r="R149" t="str">
         <v>false</v>
@@ -3194,16 +3182,16 @@
         <v>Reaction</v>
       </c>
       <c r="D150" t="str">
-        <v>vFAAH_inh_degr_b</v>
+        <v>vFAAH_inh_b</v>
       </c>
       <c r="G150" t="str">
-        <v>BRAIN * k_deg_FAAH * FAAHinh_b</v>
+        <v>BRAIN * k_inh * FAAH_b * PF_b</v>
       </c>
       <c r="H150" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K150" t="str">
-        <v xml:space="preserve">FAAHinh_b = </v>
+        <v>FAAH_b = FAAHinh_b</v>
       </c>
       <c r="R150" t="str">
         <v>false</v>
@@ -3217,16 +3205,16 @@
         <v>Reaction</v>
       </c>
       <c r="D151" t="str">
-        <v>vA_UE_b</v>
+        <v>vFAAH_inh_degr_b</v>
       </c>
       <c r="G151" t="str">
-        <v>BRAIN * b_FAAH_Brain * kcl_A * A_b</v>
+        <v>BRAIN * k_deg_FAAH * FAAHinh_b</v>
       </c>
       <c r="H151" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K151" t="str">
-        <v xml:space="preserve">A_b = </v>
+        <v xml:space="preserve">FAAHinh_b = </v>
       </c>
       <c r="R151" t="str">
         <v>false</v>
@@ -3240,16 +3228,16 @@
         <v>Reaction</v>
       </c>
       <c r="D152" t="str">
-        <v>vO_UE_b</v>
+        <v>vA_UE_b</v>
       </c>
       <c r="G152" t="str">
-        <v>BRAIN * b_FAAH_Brain * kcl_O * O_b</v>
+        <v>BRAIN * b_FAAH_Brain * kcl_A * A_b</v>
       </c>
       <c r="H152" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K152" t="str">
-        <v xml:space="preserve">O_b = </v>
+        <v xml:space="preserve">A_b = </v>
       </c>
       <c r="R152" t="str">
         <v>false</v>
@@ -3263,16 +3251,16 @@
         <v>Reaction</v>
       </c>
       <c r="D153" t="str">
-        <v>vP_UE_b</v>
+        <v>vO_UE_b</v>
       </c>
       <c r="G153" t="str">
-        <v>BRAIN * b_FAAH_Brain * kcl_P * P_b</v>
+        <v>BRAIN * b_FAAH_Brain * kcl_O * O_b</v>
       </c>
       <c r="H153" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K153" t="str">
-        <v xml:space="preserve">P_b = </v>
+        <v xml:space="preserve">O_b = </v>
       </c>
       <c r="R153" t="str">
         <v>false</v>
@@ -3286,16 +3274,16 @@
         <v>Reaction</v>
       </c>
       <c r="D154" t="str">
-        <v>vL_UE_b</v>
+        <v>vP_UE_b</v>
       </c>
       <c r="G154" t="str">
-        <v>BRAIN * b_FAAH_Brain * kcl_L * L_b</v>
+        <v>BRAIN * b_FAAH_Brain * kcl_P * P_b</v>
       </c>
       <c r="H154" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K154" t="str">
-        <v xml:space="preserve">L_b = </v>
+        <v xml:space="preserve">P_b = </v>
       </c>
       <c r="R154" t="str">
         <v>false</v>
@@ -3309,16 +3297,16 @@
         <v>Reaction</v>
       </c>
       <c r="D155" t="str">
-        <v>vS_UE_b</v>
+        <v>vL_UE_b</v>
       </c>
       <c r="G155" t="str">
-        <v>BRAIN * b_FAAH_Brain * kcl_S * S_b</v>
+        <v>BRAIN * b_FAAH_Brain * kcl_L * L_b</v>
       </c>
       <c r="H155" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K155" t="str">
-        <v xml:space="preserve">S_b = </v>
+        <v xml:space="preserve">L_b = </v>
       </c>
       <c r="R155" t="str">
         <v>false</v>
@@ -3329,16 +3317,22 @@
         <v>1</v>
       </c>
       <c r="C156" t="str">
-        <v>Const</v>
+        <v>Reaction</v>
       </c>
       <c r="D156" t="str">
-        <v>PLD_r</v>
-      </c>
-      <c r="E156">
-        <v>10000000</v>
+        <v>vS_UE_b</v>
+      </c>
+      <c r="G156" t="str">
+        <v>BRAIN * b_FAAH_Brain * kcl_S * S_b</v>
       </c>
       <c r="H156" t="str">
-        <v>nM</v>
+        <v>nmole/h</v>
+      </c>
+      <c r="K156" t="str">
+        <v xml:space="preserve">S_b = </v>
+      </c>
+      <c r="R156" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="157">
@@ -3349,13 +3343,13 @@
         <v>Const</v>
       </c>
       <c r="D157" t="str">
-        <v>LIVER</v>
+        <v>PLD_r</v>
       </c>
       <c r="E157">
-        <v>1.69</v>
+        <v>10000000</v>
       </c>
       <c r="H157" t="str">
-        <v>L</v>
+        <v>nM</v>
       </c>
     </row>
     <row r="158">
@@ -3366,10 +3360,10 @@
         <v>Const</v>
       </c>
       <c r="D158" t="str">
-        <v>Gut</v>
+        <v>LIVER</v>
       </c>
       <c r="E158">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="H158" t="str">
         <v>L</v>
@@ -3383,10 +3377,10 @@
         <v>Const</v>
       </c>
       <c r="D159" t="str">
-        <v>Spleen</v>
+        <v>Gut</v>
       </c>
       <c r="E159">
-        <v>0.192</v>
+        <v>1.65</v>
       </c>
       <c r="H159" t="str">
         <v>L</v>
@@ -3400,10 +3394,10 @@
         <v>Const</v>
       </c>
       <c r="D160" t="str">
-        <v>Kidney</v>
+        <v>Spleen</v>
       </c>
       <c r="E160">
-        <v>0.28</v>
+        <v>0.192</v>
       </c>
       <c r="H160" t="str">
         <v>L</v>
@@ -3417,10 +3411,10 @@
         <v>Const</v>
       </c>
       <c r="D161" t="str">
-        <v>Lungs</v>
+        <v>Kidney</v>
       </c>
       <c r="E161">
-        <v>1.172</v>
+        <v>0.28</v>
       </c>
       <c r="H161" t="str">
         <v>L</v>
@@ -3434,10 +3428,10 @@
         <v>Const</v>
       </c>
       <c r="D162" t="str">
-        <v>Testis</v>
+        <v>Lungs</v>
       </c>
       <c r="E162">
-        <v>0.036</v>
+        <v>1.172</v>
       </c>
       <c r="H162" t="str">
         <v>L</v>
@@ -3451,10 +3445,10 @@
         <v>Const</v>
       </c>
       <c r="D163" t="str">
-        <v>Leucocytes</v>
+        <v>Testis</v>
       </c>
       <c r="E163">
-        <v>0.025</v>
+        <v>0.036</v>
       </c>
       <c r="H163" t="str">
         <v>L</v>
@@ -3468,10 +3462,10 @@
         <v>Const</v>
       </c>
       <c r="D164" t="str">
-        <v>Pancreas</v>
+        <v>Leucocytes</v>
       </c>
       <c r="E164">
-        <v>0.077</v>
+        <v>0.025</v>
       </c>
       <c r="H164" t="str">
         <v>L</v>
@@ -3485,10 +3479,10 @@
         <v>Const</v>
       </c>
       <c r="D165" t="str">
-        <v>Heart</v>
+        <v>Pancreas</v>
       </c>
       <c r="E165">
-        <v>0.31</v>
+        <v>0.077</v>
       </c>
       <c r="H165" t="str">
         <v>L</v>
@@ -3502,10 +3496,10 @@
         <v>Const</v>
       </c>
       <c r="D166" t="str">
-        <v>Muscles</v>
+        <v>Heart</v>
       </c>
       <c r="E166">
-        <v>35</v>
+        <v>0.31</v>
       </c>
       <c r="H166" t="str">
         <v>L</v>
@@ -3519,10 +3513,10 @@
         <v>Const</v>
       </c>
       <c r="D167" t="str">
-        <v>Thymus</v>
+        <v>Muscles</v>
       </c>
       <c r="E167">
-        <v>0.029</v>
+        <v>35</v>
       </c>
       <c r="H167" t="str">
         <v>L</v>
@@ -3533,22 +3527,16 @@
         <v>1</v>
       </c>
       <c r="C168" t="str">
-        <v>Species</v>
+        <v>Const</v>
       </c>
       <c r="D168" t="str">
-        <v>A_r</v>
-      </c>
-      <c r="F168" t="str">
-        <v>0.5419204</v>
+        <v>Thymus</v>
+      </c>
+      <c r="E168">
+        <v>0.029</v>
       </c>
       <c r="H168" t="str">
-        <v>nM</v>
-      </c>
-      <c r="I168" t="str">
-        <v>ROB</v>
-      </c>
-      <c r="M168" t="str">
-        <v>AEA in rest of body</v>
+        <v>L</v>
       </c>
     </row>
     <row r="169">
@@ -3559,10 +3547,10 @@
         <v>Species</v>
       </c>
       <c r="D169" t="str">
-        <v>O_r</v>
+        <v>A_r</v>
       </c>
       <c r="F169" t="str">
-        <v>14.23822</v>
+        <v>0.5419204</v>
       </c>
       <c r="H169" t="str">
         <v>nM</v>
@@ -3571,7 +3559,7 @@
         <v>ROB</v>
       </c>
       <c r="M169" t="str">
-        <v>OEA in rest of body</v>
+        <v>AEA in rest of body</v>
       </c>
     </row>
     <row r="170">
@@ -3582,10 +3570,10 @@
         <v>Species</v>
       </c>
       <c r="D170" t="str">
-        <v>P_r</v>
+        <v>O_r</v>
       </c>
       <c r="F170" t="str">
-        <v>4.121915</v>
+        <v>14.23822</v>
       </c>
       <c r="H170" t="str">
         <v>nM</v>
@@ -3594,7 +3582,7 @@
         <v>ROB</v>
       </c>
       <c r="M170" t="str">
-        <v>PEA in rest of body</v>
+        <v>OEA in rest of body</v>
       </c>
     </row>
     <row r="171">
@@ -3605,10 +3593,10 @@
         <v>Species</v>
       </c>
       <c r="D171" t="str">
-        <v>L_r</v>
+        <v>P_r</v>
       </c>
       <c r="F171" t="str">
-        <v>1.705466</v>
+        <v>4.121915</v>
       </c>
       <c r="H171" t="str">
         <v>nM</v>
@@ -3617,7 +3605,7 @@
         <v>ROB</v>
       </c>
       <c r="M171" t="str">
-        <v>LEA in rest of body</v>
+        <v>PEA in rest of body</v>
       </c>
     </row>
     <row r="172">
@@ -3628,10 +3616,10 @@
         <v>Species</v>
       </c>
       <c r="D172" t="str">
-        <v>S_r</v>
+        <v>L_r</v>
       </c>
       <c r="F172" t="str">
-        <v>2.515968</v>
+        <v>1.705466</v>
       </c>
       <c r="H172" t="str">
         <v>nM</v>
@@ -3640,7 +3628,7 @@
         <v>ROB</v>
       </c>
       <c r="M172" t="str">
-        <v>SEA in rest of body</v>
+        <v>LEA in rest of body</v>
       </c>
     </row>
     <row r="173">
@@ -3651,10 +3639,10 @@
         <v>Species</v>
       </c>
       <c r="D173" t="str">
-        <v>NAPE_r</v>
+        <v>S_r</v>
       </c>
       <c r="F173" t="str">
-        <v>4.241633e-6</v>
+        <v>2.515968</v>
       </c>
       <c r="H173" t="str">
         <v>nM</v>
@@ -3662,6 +3650,9 @@
       <c r="I173" t="str">
         <v>ROB</v>
       </c>
+      <c r="M173" t="str">
+        <v>SEA in rest of body</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -3671,10 +3662,10 @@
         <v>Species</v>
       </c>
       <c r="D174" t="str">
-        <v>NOPE_r</v>
+        <v>NAPE_r</v>
       </c>
       <c r="F174" t="str">
-        <v>9.638198e-5</v>
+        <v>4.241633e-6</v>
       </c>
       <c r="H174" t="str">
         <v>nM</v>
@@ -3691,10 +3682,10 @@
         <v>Species</v>
       </c>
       <c r="D175" t="str">
-        <v>NPPE_r</v>
+        <v>NOPE_r</v>
       </c>
       <c r="F175" t="str">
-        <v>1.894222e-5</v>
+        <v>9.638198e-5</v>
       </c>
       <c r="H175" t="str">
         <v>nM</v>
@@ -3711,10 +3702,10 @@
         <v>Species</v>
       </c>
       <c r="D176" t="str">
-        <v>NLPE_r</v>
+        <v>NPPE_r</v>
       </c>
       <c r="F176" t="str">
-        <v>8.256095e-6</v>
+        <v>1.894222e-5</v>
       </c>
       <c r="H176" t="str">
         <v>nM</v>
@@ -3731,10 +3722,10 @@
         <v>Species</v>
       </c>
       <c r="D177" t="str">
-        <v>NSPE_r</v>
+        <v>NLPE_r</v>
       </c>
       <c r="F177" t="str">
-        <v>1.391587e-5</v>
+        <v>8.256095e-6</v>
       </c>
       <c r="H177" t="str">
         <v>nM</v>
@@ -3751,10 +3742,10 @@
         <v>Species</v>
       </c>
       <c r="D178" t="str">
-        <v>FAAH_r</v>
+        <v>NSPE_r</v>
       </c>
       <c r="F178" t="str">
-        <v>2.165868</v>
+        <v>1.391587e-5</v>
       </c>
       <c r="H178" t="str">
         <v>nM</v>
@@ -3771,10 +3762,10 @@
         <v>Species</v>
       </c>
       <c r="D179" t="str">
-        <v>FAAHinh_r</v>
+        <v>FAAH_r</v>
       </c>
       <c r="F179" t="str">
-        <v>0</v>
+        <v>2.165868</v>
       </c>
       <c r="H179" t="str">
         <v>nM</v>
@@ -3788,16 +3779,19 @@
         <v>1</v>
       </c>
       <c r="C180" t="str">
-        <v>Record</v>
+        <v>Species</v>
       </c>
       <c r="D180" t="str">
-        <v>FAAH_D_r</v>
-      </c>
-      <c r="G180" t="str">
-        <v>1 + A_r / Km_FAAH_A + O_r / Km_FAAH_O + P_r / Km_FAAH_P + L_r / Km_FAAH_L + S_r / Km_FAAH_S</v>
+        <v>FAAHinh_r</v>
+      </c>
+      <c r="F180" t="str">
+        <v>0</v>
       </c>
       <c r="H180" t="str">
-        <v>UL</v>
+        <v>nM</v>
+      </c>
+      <c r="I180" t="str">
+        <v>ROB</v>
       </c>
     </row>
     <row r="181">
@@ -3805,25 +3799,16 @@
         <v>1</v>
       </c>
       <c r="C181" t="str">
-        <v>Reaction</v>
+        <v>Record</v>
       </c>
       <c r="D181" t="str">
-        <v>vA_degr_r</v>
+        <v>FAAH_D_r</v>
       </c>
       <c r="G181" t="str">
-        <v>ROB * FAAH_r * kcat_FAAH * a_FAAH_A * A_r / (Km_FAAH_A * FAAH_D_r)</v>
+        <v>1 + A_r / Km_FAAH_A + O_r / Km_FAAH_O + P_r / Km_FAAH_P + L_r / Km_FAAH_L + S_r / Km_FAAH_S</v>
       </c>
       <c r="H181" t="str">
-        <v>nmole/h</v>
-      </c>
-      <c r="K181" t="str">
-        <v xml:space="preserve">A_r = </v>
-      </c>
-      <c r="L181" t="str">
-        <v>FAAH_r</v>
-      </c>
-      <c r="R181" t="str">
-        <v>false</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="182">
@@ -3834,16 +3819,16 @@
         <v>Reaction</v>
       </c>
       <c r="D182" t="str">
-        <v>vO_degr_r</v>
+        <v>vA_degr_r</v>
       </c>
       <c r="G182" t="str">
-        <v>ROB * FAAH_r * kcat_FAAH * a_FAAH_O * O_r / (Km_FAAH_O * FAAH_D_r)</v>
+        <v>ROB * FAAH_r * kcat_FAAH * a_FAAH_A * A_r / (Km_FAAH_A * FAAH_D_r)</v>
       </c>
       <c r="H182" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K182" t="str">
-        <v xml:space="preserve">O_r = </v>
+        <v xml:space="preserve">A_r = </v>
       </c>
       <c r="L182" t="str">
         <v>FAAH_r</v>
@@ -3860,16 +3845,16 @@
         <v>Reaction</v>
       </c>
       <c r="D183" t="str">
-        <v>vP_degr_r</v>
+        <v>vO_degr_r</v>
       </c>
       <c r="G183" t="str">
-        <v>ROB * FAAH_r * kcat_FAAH * a_FAAH_P * P_r / (Km_FAAH_P * FAAH_D_r)</v>
+        <v>ROB * FAAH_r * kcat_FAAH * a_FAAH_O * O_r / (Km_FAAH_O * FAAH_D_r)</v>
       </c>
       <c r="H183" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K183" t="str">
-        <v xml:space="preserve">P_r = </v>
+        <v xml:space="preserve">O_r = </v>
       </c>
       <c r="L183" t="str">
         <v>FAAH_r</v>
@@ -3886,16 +3871,16 @@
         <v>Reaction</v>
       </c>
       <c r="D184" t="str">
-        <v>vL_degr_r</v>
+        <v>vP_degr_r</v>
       </c>
       <c r="G184" t="str">
-        <v>ROB * FAAH_r * kcat_FAAH * a_FAAH_L * L_r / (Km_FAAH_L * FAAH_D_r)</v>
+        <v>ROB * FAAH_r * kcat_FAAH * a_FAAH_P * P_r / (Km_FAAH_P * FAAH_D_r)</v>
       </c>
       <c r="H184" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K184" t="str">
-        <v xml:space="preserve">L_r = </v>
+        <v xml:space="preserve">P_r = </v>
       </c>
       <c r="L184" t="str">
         <v>FAAH_r</v>
@@ -3912,16 +3897,16 @@
         <v>Reaction</v>
       </c>
       <c r="D185" t="str">
-        <v>vS_degr_r</v>
+        <v>vL_degr_r</v>
       </c>
       <c r="G185" t="str">
-        <v>ROB * FAAH_r * kcat_FAAH * a_FAAH_S * S_r / (Km_FAAH_S * FAAH_D_r)</v>
+        <v>ROB * FAAH_r * kcat_FAAH * a_FAAH_L * L_r / (Km_FAAH_L * FAAH_D_r)</v>
       </c>
       <c r="H185" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K185" t="str">
-        <v xml:space="preserve">S_r = </v>
+        <v xml:space="preserve">L_r = </v>
       </c>
       <c r="L185" t="str">
         <v>FAAH_r</v>
@@ -3935,16 +3920,25 @@
         <v>1</v>
       </c>
       <c r="C186" t="str">
-        <v>Record</v>
+        <v>Reaction</v>
       </c>
       <c r="D186" t="str">
-        <v>c_NAT_ROB</v>
+        <v>vS_degr_r</v>
       </c>
       <c r="G186" t="str">
-        <v>Pancreas * b_NAT_Pancreas + Kidney * b_NAT_Kidney + Heart * b_NAT_Heart + Lungs * b_NAT_Lungs + Muscles * b_NAT_Muscles + Testis * b_NAT_Testis + Leucocytes * b_NAT_Leucocytes</v>
+        <v>ROB * FAAH_r * kcat_FAAH * a_FAAH_S * S_r / (Km_FAAH_S * FAAH_D_r)</v>
       </c>
       <c r="H186" t="str">
-        <v>L</v>
+        <v>nmole/h</v>
+      </c>
+      <c r="K186" t="str">
+        <v xml:space="preserve">S_r = </v>
+      </c>
+      <c r="L186" t="str">
+        <v>FAAH_r</v>
+      </c>
+      <c r="R186" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="187">
@@ -3952,22 +3946,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="str">
-        <v>Reaction</v>
+        <v>Record</v>
       </c>
       <c r="D187" t="str">
-        <v>vNAPE_syn_r</v>
+        <v>c_NAT_ROB</v>
       </c>
       <c r="G187" t="str">
-        <v>Vmax_NAT * p_A * a_NAT_A * c_NAT_ROB</v>
+        <v>Pancreas * b_NAT_Pancreas + Kidney * b_NAT_Kidney + Heart * b_NAT_Heart + Lungs * b_NAT_Lungs + Muscles * b_NAT_Muscles + Testis * b_NAT_Testis + Leucocytes * b_NAT_Leucocytes</v>
       </c>
       <c r="H187" t="str">
-        <v>nmole/h</v>
-      </c>
-      <c r="K187" t="str">
-        <v xml:space="preserve"> = NAPE_r</v>
-      </c>
-      <c r="R187" t="str">
-        <v>false</v>
+        <v>L</v>
       </c>
     </row>
     <row r="188">
@@ -3978,16 +3966,16 @@
         <v>Reaction</v>
       </c>
       <c r="D188" t="str">
-        <v>vNOPE_syn_r</v>
+        <v>vNAPE_syn_r</v>
       </c>
       <c r="G188" t="str">
-        <v>Vmax_NAT * p_O * a_NAT_O * c_NAT_ROB</v>
+        <v>Vmax_NAT * p_A * a_NAT_A * c_NAT_ROB</v>
       </c>
       <c r="H188" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K188" t="str">
-        <v xml:space="preserve"> = NOPE_r</v>
+        <v xml:space="preserve"> = NAPE_r</v>
       </c>
       <c r="R188" t="str">
         <v>false</v>
@@ -4001,16 +3989,16 @@
         <v>Reaction</v>
       </c>
       <c r="D189" t="str">
-        <v>vNPPE_syn_r</v>
+        <v>vNOPE_syn_r</v>
       </c>
       <c r="G189" t="str">
-        <v>Vmax_NAT * p_P * a_NAT_P * c_NAT_ROB</v>
+        <v>Vmax_NAT * p_O * a_NAT_O * c_NAT_ROB</v>
       </c>
       <c r="H189" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K189" t="str">
-        <v xml:space="preserve"> = NPPE_r</v>
+        <v xml:space="preserve"> = NOPE_r</v>
       </c>
       <c r="R189" t="str">
         <v>false</v>
@@ -4024,16 +4012,16 @@
         <v>Reaction</v>
       </c>
       <c r="D190" t="str">
-        <v>vNLPE_syn_r</v>
+        <v>vNPPE_syn_r</v>
       </c>
       <c r="G190" t="str">
-        <v>Vmax_NAT * p_L * a_NAT_L * c_NAT_ROB</v>
+        <v>Vmax_NAT * p_P * a_NAT_P * c_NAT_ROB</v>
       </c>
       <c r="H190" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K190" t="str">
-        <v xml:space="preserve"> = NLPE_r</v>
+        <v xml:space="preserve"> = NPPE_r</v>
       </c>
       <c r="R190" t="str">
         <v>false</v>
@@ -4047,16 +4035,16 @@
         <v>Reaction</v>
       </c>
       <c r="D191" t="str">
-        <v>vNSPE_syn_r</v>
+        <v>vNLPE_syn_r</v>
       </c>
       <c r="G191" t="str">
-        <v>Vmax_NAT * p_S * a_NAT_S * c_NAT_ROB</v>
+        <v>Vmax_NAT * p_L * a_NAT_L * c_NAT_ROB</v>
       </c>
       <c r="H191" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K191" t="str">
-        <v xml:space="preserve"> = NSPE_r</v>
+        <v xml:space="preserve"> = NLPE_r</v>
       </c>
       <c r="R191" t="str">
         <v>false</v>
@@ -4067,16 +4055,22 @@
         <v>1</v>
       </c>
       <c r="C192" t="str">
-        <v>Record</v>
+        <v>Reaction</v>
       </c>
       <c r="D192" t="str">
-        <v>slag1_r</v>
+        <v>vNSPE_syn_r</v>
       </c>
       <c r="G192" t="str">
-        <v>NAPE_r / Km_NA_PE + NOPE_r / Km_NO_PE + NPPE_r / Km_NP_PE + NLPE_r / Km_NL_PE + NSPE_r / Km_NS_PE</v>
+        <v>Vmax_NAT * p_S * a_NAT_S * c_NAT_ROB</v>
       </c>
       <c r="H192" t="str">
-        <v>UL</v>
+        <v>nmole/h</v>
+      </c>
+      <c r="K192" t="str">
+        <v xml:space="preserve"> = NSPE_r</v>
+      </c>
+      <c r="R192" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="193">
@@ -4087,10 +4081,10 @@
         <v>Record</v>
       </c>
       <c r="D193" t="str">
-        <v>slag2_r</v>
+        <v>slag1_r</v>
       </c>
       <c r="G193" t="str">
-        <v>A_r / Ki_A + O_r / Ki_O + P_r / Ki_P + L_r / Ki_L + S_r / Ki_S</v>
+        <v>NAPE_r / Km_NA_PE + NOPE_r / Km_NO_PE + NPPE_r / Km_NP_PE + NLPE_r / Km_NL_PE + NSPE_r / Km_NS_PE</v>
       </c>
       <c r="H193" t="str">
         <v>UL</v>
@@ -4104,10 +4098,10 @@
         <v>Record</v>
       </c>
       <c r="D194" t="str">
-        <v>den_r</v>
+        <v>slag2_r</v>
       </c>
       <c r="G194" t="str">
-        <v>1 + slag1_r + slag2_r</v>
+        <v>A_r / Ki_A + O_r / Ki_O + P_r / Ki_P + L_r / Ki_L + S_r / Ki_S</v>
       </c>
       <c r="H194" t="str">
         <v>UL</v>
@@ -4118,22 +4112,16 @@
         <v>1</v>
       </c>
       <c r="C195" t="str">
-        <v>Reaction</v>
+        <v>Record</v>
       </c>
       <c r="D195" t="str">
-        <v>vA_syn_r</v>
+        <v>den_r</v>
       </c>
       <c r="G195" t="str">
-        <v>ROB * PLD_r * k_NA_PE * NAPE_r / Km_NA_PE / den_r</v>
+        <v>1 + slag1_r + slag2_r</v>
       </c>
       <c r="H195" t="str">
-        <v>nmole/h</v>
-      </c>
-      <c r="K195" t="str">
-        <v>NAPE_r = A_r</v>
-      </c>
-      <c r="R195" t="str">
-        <v>false</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="196">
@@ -4144,16 +4132,16 @@
         <v>Reaction</v>
       </c>
       <c r="D196" t="str">
-        <v>vO_syn_r</v>
+        <v>vA_syn_r</v>
       </c>
       <c r="G196" t="str">
-        <v>ROB * PLD_r * k_NO_PE * NOPE_r / Km_NO_PE / den_r</v>
+        <v>ROB * PLD_r * k_NA_PE * NAPE_r / Km_NA_PE / den_r</v>
       </c>
       <c r="H196" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K196" t="str">
-        <v>NOPE_r = O_r</v>
+        <v>NAPE_r = A_r</v>
       </c>
       <c r="R196" t="str">
         <v>false</v>
@@ -4167,16 +4155,16 @@
         <v>Reaction</v>
       </c>
       <c r="D197" t="str">
-        <v>vP_syn_r</v>
+        <v>vO_syn_r</v>
       </c>
       <c r="G197" t="str">
-        <v>ROB * PLD_r * k_NP_PE * NPPE_r / Km_NP_PE / den_r</v>
+        <v>ROB * PLD_r * k_NO_PE * NOPE_r / Km_NO_PE / den_r</v>
       </c>
       <c r="H197" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K197" t="str">
-        <v>NPPE_r = P_r</v>
+        <v>NOPE_r = O_r</v>
       </c>
       <c r="R197" t="str">
         <v>false</v>
@@ -4190,16 +4178,16 @@
         <v>Reaction</v>
       </c>
       <c r="D198" t="str">
-        <v>vL_syn_r</v>
+        <v>vP_syn_r</v>
       </c>
       <c r="G198" t="str">
-        <v>ROB * PLD_r * k_NL_PE * NLPE_r / Km_NL_PE / den_r</v>
+        <v>ROB * PLD_r * k_NP_PE * NPPE_r / Km_NP_PE / den_r</v>
       </c>
       <c r="H198" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K198" t="str">
-        <v>NLPE_r = L_r</v>
+        <v>NPPE_r = P_r</v>
       </c>
       <c r="R198" t="str">
         <v>false</v>
@@ -4213,16 +4201,16 @@
         <v>Reaction</v>
       </c>
       <c r="D199" t="str">
-        <v>vS_syn_r</v>
+        <v>vL_syn_r</v>
       </c>
       <c r="G199" t="str">
-        <v>ROB * PLD_r * k_NS_PE * NSPE_r / Km_NS_PE / den_r</v>
+        <v>ROB * PLD_r * k_NL_PE * NLPE_r / Km_NL_PE / den_r</v>
       </c>
       <c r="H199" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K199" t="str">
-        <v>NSPE_r = S_r</v>
+        <v>NLPE_r = L_r</v>
       </c>
       <c r="R199" t="str">
         <v>false</v>
@@ -4233,16 +4221,22 @@
         <v>1</v>
       </c>
       <c r="C200" t="str">
-        <v>Record</v>
+        <v>Reaction</v>
       </c>
       <c r="D200" t="str">
-        <v>c_FAAH_ROB</v>
+        <v>vS_syn_r</v>
       </c>
       <c r="G200" t="str">
-        <v>LIVER * b_FAAH_Liver + Gut * b_FAAH_Gut + Spleen * b_FAAH_Spleen + Kidney * b_FAAH_Kidney + Lungs * b_FAAH_Lungs + Testis * b_FAAH_Testis + Leucocytes * b_FAAH_Leucocytes</v>
+        <v>ROB * PLD_r * k_NS_PE * NSPE_r / Km_NS_PE / den_r</v>
       </c>
       <c r="H200" t="str">
-        <v>L</v>
+        <v>nmole/h</v>
+      </c>
+      <c r="K200" t="str">
+        <v>NSPE_r = S_r</v>
+      </c>
+      <c r="R200" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="201">
@@ -4250,22 +4244,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="str">
-        <v>Reaction</v>
+        <v>Record</v>
       </c>
       <c r="D201" t="str">
-        <v>vFAAH_syn_r</v>
+        <v>c_FAAH_ROB</v>
       </c>
       <c r="G201" t="str">
-        <v>FAAH_t * c_FAAH_ROB * k_deg_FAAH</v>
+        <v>LIVER * b_FAAH_Liver + Gut * b_FAAH_Gut + Spleen * b_FAAH_Spleen + Kidney * b_FAAH_Kidney + Lungs * b_FAAH_Lungs + Testis * b_FAAH_Testis + Leucocytes * b_FAAH_Leucocytes</v>
       </c>
       <c r="H201" t="str">
-        <v>nmole/h</v>
-      </c>
-      <c r="K201" t="str">
-        <v xml:space="preserve"> = FAAH_r</v>
-      </c>
-      <c r="R201" t="str">
-        <v>false</v>
+        <v>L</v>
       </c>
     </row>
     <row r="202">
@@ -4276,16 +4264,16 @@
         <v>Reaction</v>
       </c>
       <c r="D202" t="str">
-        <v>vFAAH_degr_r</v>
+        <v>vFAAH_syn_r</v>
       </c>
       <c r="G202" t="str">
-        <v>ROB * k_deg_FAAH * FAAH_r</v>
+        <v>FAAH_t * c_FAAH_ROB * k_deg_FAAH</v>
       </c>
       <c r="H202" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K202" t="str">
-        <v xml:space="preserve">FAAH_r = </v>
+        <v xml:space="preserve"> = FAAH_r</v>
       </c>
       <c r="R202" t="str">
         <v>false</v>
@@ -4299,16 +4287,16 @@
         <v>Reaction</v>
       </c>
       <c r="D203" t="str">
-        <v>vFAAH_inh_r</v>
+        <v>vFAAH_degr_r</v>
       </c>
       <c r="G203" t="str">
-        <v>ROB * k_inh * FAAH_r * PF_r</v>
+        <v>ROB * k_deg_FAAH * FAAH_r</v>
       </c>
       <c r="H203" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K203" t="str">
-        <v>FAAH_r = FAAHinh_r</v>
+        <v xml:space="preserve">FAAH_r = </v>
       </c>
       <c r="R203" t="str">
         <v>false</v>
@@ -4322,16 +4310,16 @@
         <v>Reaction</v>
       </c>
       <c r="D204" t="str">
-        <v>vFAAH_inh_degr_r</v>
+        <v>vFAAH_inh_r</v>
       </c>
       <c r="G204" t="str">
-        <v>ROB * k_deg_FAAH * FAAHinh_r</v>
+        <v>ROB * k_inh * FAAH_r * PF_r</v>
       </c>
       <c r="H204" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K204" t="str">
-        <v xml:space="preserve">FAAHinh_r = </v>
+        <v>FAAH_r = FAAHinh_r</v>
       </c>
       <c r="R204" t="str">
         <v>false</v>
@@ -4342,16 +4330,22 @@
         <v>1</v>
       </c>
       <c r="C205" t="str">
-        <v>Record</v>
+        <v>Reaction</v>
       </c>
       <c r="D205" t="str">
-        <v>c_NAAA_ROB</v>
+        <v>vFAAH_inh_degr_r</v>
       </c>
       <c r="G205" t="str">
-        <v>LIVER * b_NAAA_Liver + Gut * b_NAAA_Gut + Spleen * b_NAAA_Spleen + Kidney * b_NAAA_Kidney + Heart * b_NAAA_Heart + Lungs * b_NAAA_Lungs + Thymus * b_NAAA_Thymus + Testis * b_NAAA_Testis</v>
+        <v>ROB * k_deg_FAAH * FAAHinh_r</v>
       </c>
       <c r="H205" t="str">
-        <v>L</v>
+        <v>nmole/h</v>
+      </c>
+      <c r="K205" t="str">
+        <v xml:space="preserve">FAAHinh_r = </v>
+      </c>
+      <c r="R205" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="206">
@@ -4359,22 +4353,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="str">
-        <v>Reaction</v>
+        <v>Record</v>
       </c>
       <c r="D206" t="str">
-        <v>vA_UE_r</v>
+        <v>c_NAAA_ROB</v>
       </c>
       <c r="G206" t="str">
-        <v>c_NAAA_ROB * kcl_A * A_r</v>
+        <v>LIVER * b_NAAA_Liver + Gut * b_NAAA_Gut + Spleen * b_NAAA_Spleen + Kidney * b_NAAA_Kidney + Heart * b_NAAA_Heart + Lungs * b_NAAA_Lungs + Thymus * b_NAAA_Thymus + Testis * b_NAAA_Testis</v>
       </c>
       <c r="H206" t="str">
-        <v>nmole/h</v>
-      </c>
-      <c r="K206" t="str">
-        <v xml:space="preserve">A_r = </v>
-      </c>
-      <c r="R206" t="str">
-        <v>false</v>
+        <v>L</v>
       </c>
     </row>
     <row r="207">
@@ -4385,16 +4373,16 @@
         <v>Reaction</v>
       </c>
       <c r="D207" t="str">
-        <v>vO_UE_r</v>
+        <v>vA_UE_r</v>
       </c>
       <c r="G207" t="str">
-        <v>c_NAAA_ROB * kcl_O * O_r</v>
+        <v>c_NAAA_ROB * kcl_A * A_r</v>
       </c>
       <c r="H207" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K207" t="str">
-        <v xml:space="preserve">O_r = </v>
+        <v xml:space="preserve">A_r = </v>
       </c>
       <c r="R207" t="str">
         <v>false</v>
@@ -4408,16 +4396,16 @@
         <v>Reaction</v>
       </c>
       <c r="D208" t="str">
-        <v>vP_UE_r</v>
+        <v>vO_UE_r</v>
       </c>
       <c r="G208" t="str">
-        <v>c_NAAA_ROB * kcl_P * P_r</v>
+        <v>c_NAAA_ROB * kcl_O * O_r</v>
       </c>
       <c r="H208" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K208" t="str">
-        <v xml:space="preserve">P_r = </v>
+        <v xml:space="preserve">O_r = </v>
       </c>
       <c r="R208" t="str">
         <v>false</v>
@@ -4431,16 +4419,16 @@
         <v>Reaction</v>
       </c>
       <c r="D209" t="str">
-        <v>vL_UE_r</v>
+        <v>vP_UE_r</v>
       </c>
       <c r="G209" t="str">
-        <v>c_NAAA_ROB * kcl_L * L_r</v>
+        <v>c_NAAA_ROB * kcl_P * P_r</v>
       </c>
       <c r="H209" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K209" t="str">
-        <v xml:space="preserve">L_r = </v>
+        <v xml:space="preserve">P_r = </v>
       </c>
       <c r="R209" t="str">
         <v>false</v>
@@ -4454,16 +4442,16 @@
         <v>Reaction</v>
       </c>
       <c r="D210" t="str">
-        <v>vS_UE_r</v>
+        <v>vL_UE_r</v>
       </c>
       <c r="G210" t="str">
-        <v>c_NAAA_ROB * kcl_S * S_r</v>
+        <v>c_NAAA_ROB * kcl_L * L_r</v>
       </c>
       <c r="H210" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K210" t="str">
-        <v xml:space="preserve">S_r = </v>
+        <v xml:space="preserve">L_r = </v>
       </c>
       <c r="R210" t="str">
         <v>false</v>
@@ -4474,19 +4462,22 @@
         <v>1</v>
       </c>
       <c r="C211" t="str">
-        <v>Compartment</v>
+        <v>Reaction</v>
       </c>
       <c r="D211" t="str">
-        <v>MEC</v>
-      </c>
-      <c r="F211" t="str">
-        <v>1.5e-5</v>
+        <v>vS_UE_r</v>
+      </c>
+      <c r="G211" t="str">
+        <v>c_NAAA_ROB * kcl_S * S_r</v>
       </c>
       <c r="H211" t="str">
-        <v>L</v>
-      </c>
-      <c r="N211" t="str">
-        <v>The same as blood brain barrier (BBB)</v>
+        <v>nmole/h</v>
+      </c>
+      <c r="K211" t="str">
+        <v xml:space="preserve">S_r = </v>
+      </c>
+      <c r="R211" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="212">
@@ -4494,19 +4485,19 @@
         <v>1</v>
       </c>
       <c r="C212" t="str">
-        <v>Species</v>
+        <v>Compartment</v>
       </c>
       <c r="D212" t="str">
-        <v>A_m</v>
+        <v>MEC</v>
       </c>
       <c r="F212" t="str">
-        <v>0.97761</v>
+        <v>1.5e-5</v>
       </c>
       <c r="H212" t="str">
-        <v>nM</v>
-      </c>
-      <c r="I212" t="str">
-        <v>MEC</v>
+        <v>L</v>
+      </c>
+      <c r="N212" t="str">
+        <v>The same as blood brain barrier (BBB)</v>
       </c>
     </row>
     <row r="213">
@@ -4517,10 +4508,10 @@
         <v>Species</v>
       </c>
       <c r="D213" t="str">
-        <v>O_m</v>
+        <v>A_m</v>
       </c>
       <c r="F213" t="str">
-        <v>16.3219</v>
+        <v>0.97761</v>
       </c>
       <c r="H213" t="str">
         <v>nM</v>
@@ -4537,10 +4528,10 @@
         <v>Species</v>
       </c>
       <c r="D214" t="str">
-        <v>P_m</v>
+        <v>O_m</v>
       </c>
       <c r="F214" t="str">
-        <v>5.809415</v>
+        <v>16.3219</v>
       </c>
       <c r="H214" t="str">
         <v>nM</v>
@@ -4557,10 +4548,10 @@
         <v>Species</v>
       </c>
       <c r="D215" t="str">
-        <v>L_m</v>
+        <v>P_m</v>
       </c>
       <c r="F215" t="str">
-        <v>0</v>
+        <v>5.809415</v>
       </c>
       <c r="H215" t="str">
         <v>nM</v>
@@ -4577,10 +4568,10 @@
         <v>Species</v>
       </c>
       <c r="D216" t="str">
-        <v>S_m</v>
+        <v>L_m</v>
       </c>
       <c r="F216" t="str">
-        <v>2.968774</v>
+        <v>0</v>
       </c>
       <c r="H216" t="str">
         <v>nM</v>
@@ -4597,10 +4588,10 @@
         <v>Species</v>
       </c>
       <c r="D217" t="str">
-        <v>FAAH_m</v>
+        <v>S_m</v>
       </c>
       <c r="F217" t="str">
-        <v>10.686</v>
+        <v>2.968774</v>
       </c>
       <c r="H217" t="str">
         <v>nM</v>
@@ -4617,10 +4608,10 @@
         <v>Species</v>
       </c>
       <c r="D218" t="str">
-        <v>FAAHinh_m</v>
+        <v>FAAH_m</v>
       </c>
       <c r="F218" t="str">
-        <v>0</v>
+        <v>10.686</v>
       </c>
       <c r="H218" t="str">
         <v>nM</v>
@@ -4634,16 +4625,19 @@
         <v>1</v>
       </c>
       <c r="C219" t="str">
-        <v>Record</v>
+        <v>Species</v>
       </c>
       <c r="D219" t="str">
-        <v>FAAH_D_m</v>
-      </c>
-      <c r="G219" t="str">
-        <v>1 + A_m / Km_FAAH_A + O_m / Km_FAAH_O + P_m / Km_FAAH_P + L_m / Km_FAAH_L + S_m / Km_FAAH_S</v>
+        <v>FAAHinh_m</v>
+      </c>
+      <c r="F219" t="str">
+        <v>0</v>
       </c>
       <c r="H219" t="str">
-        <v>UL</v>
+        <v>nM</v>
+      </c>
+      <c r="I219" t="str">
+        <v>MEC</v>
       </c>
     </row>
     <row r="220">
@@ -4651,25 +4645,16 @@
         <v>1</v>
       </c>
       <c r="C220" t="str">
-        <v>Reaction</v>
+        <v>Record</v>
       </c>
       <c r="D220" t="str">
-        <v>vA_degr_m</v>
+        <v>FAAH_D_m</v>
       </c>
       <c r="G220" t="str">
-        <v>MEC * FAAH_m * kcat_FAAH * a_FAAH_A * A_m / (Km_FAAH_A * FAAH_D_m)</v>
+        <v>1 + A_m / Km_FAAH_A + O_m / Km_FAAH_O + P_m / Km_FAAH_P + L_m / Km_FAAH_L + S_m / Km_FAAH_S</v>
       </c>
       <c r="H220" t="str">
-        <v>nmole/h</v>
-      </c>
-      <c r="K220" t="str">
-        <v xml:space="preserve">A_m = </v>
-      </c>
-      <c r="L220" t="str">
-        <v>FAAH_m</v>
-      </c>
-      <c r="R220" t="str">
-        <v>false</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="221">
@@ -4680,16 +4665,16 @@
         <v>Reaction</v>
       </c>
       <c r="D221" t="str">
-        <v>vO_degr_m</v>
+        <v>vA_degr_m</v>
       </c>
       <c r="G221" t="str">
-        <v>MEC * FAAH_m * kcat_FAAH * a_FAAH_O * O_m / (Km_FAAH_O * FAAH_D_m)</v>
+        <v>MEC * FAAH_m * kcat_FAAH * a_FAAH_A * A_m / (Km_FAAH_A * FAAH_D_m)</v>
       </c>
       <c r="H221" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K221" t="str">
-        <v xml:space="preserve">O_m = </v>
+        <v xml:space="preserve">A_m = </v>
       </c>
       <c r="L221" t="str">
         <v>FAAH_m</v>
@@ -4706,16 +4691,16 @@
         <v>Reaction</v>
       </c>
       <c r="D222" t="str">
-        <v>vP_degr_m</v>
+        <v>vO_degr_m</v>
       </c>
       <c r="G222" t="str">
-        <v>MEC * FAAH_m * kcat_FAAH * a_FAAH_P * P_m / (Km_FAAH_P * FAAH_D_m)</v>
+        <v>MEC * FAAH_m * kcat_FAAH * a_FAAH_O * O_m / (Km_FAAH_O * FAAH_D_m)</v>
       </c>
       <c r="H222" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K222" t="str">
-        <v xml:space="preserve">P_m = </v>
+        <v xml:space="preserve">O_m = </v>
       </c>
       <c r="L222" t="str">
         <v>FAAH_m</v>
@@ -4732,16 +4717,16 @@
         <v>Reaction</v>
       </c>
       <c r="D223" t="str">
-        <v>vL_degr_m</v>
+        <v>vP_degr_m</v>
       </c>
       <c r="G223" t="str">
-        <v>MEC * FAAH_m * kcat_FAAH * a_FAAH_L * L_m / (Km_FAAH_L * FAAH_D_m)</v>
+        <v>MEC * FAAH_m * kcat_FAAH * a_FAAH_P * P_m / (Km_FAAH_P * FAAH_D_m)</v>
       </c>
       <c r="H223" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K223" t="str">
-        <v xml:space="preserve">L_m = </v>
+        <v xml:space="preserve">P_m = </v>
       </c>
       <c r="L223" t="str">
         <v>FAAH_m</v>
@@ -4758,16 +4743,16 @@
         <v>Reaction</v>
       </c>
       <c r="D224" t="str">
-        <v>vS_degr_m</v>
+        <v>vL_degr_m</v>
       </c>
       <c r="G224" t="str">
-        <v>MEC * FAAH_m * kcat_FAAH * a_FAAH_S * S_m / (Km_FAAH_S * FAAH_D_m)</v>
+        <v>MEC * FAAH_m * kcat_FAAH * a_FAAH_L * L_m / (Km_FAAH_L * FAAH_D_m)</v>
       </c>
       <c r="H224" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K224" t="str">
-        <v xml:space="preserve">S_m = </v>
+        <v xml:space="preserve">L_m = </v>
       </c>
       <c r="L224" t="str">
         <v>FAAH_m</v>
@@ -4784,16 +4769,19 @@
         <v>Reaction</v>
       </c>
       <c r="D225" t="str">
-        <v>vFAAH_syn_m</v>
+        <v>vS_degr_m</v>
       </c>
       <c r="G225" t="str">
-        <v>MEC * FAAH_t * b_FAAH_MEC * k_deg_FAAH</v>
+        <v>MEC * FAAH_m * kcat_FAAH * a_FAAH_S * S_m / (Km_FAAH_S * FAAH_D_m)</v>
       </c>
       <c r="H225" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K225" t="str">
-        <v xml:space="preserve"> = FAAH_m</v>
+        <v xml:space="preserve">S_m = </v>
+      </c>
+      <c r="L225" t="str">
+        <v>FAAH_m</v>
       </c>
       <c r="R225" t="str">
         <v>false</v>
@@ -4807,16 +4795,16 @@
         <v>Reaction</v>
       </c>
       <c r="D226" t="str">
-        <v>vFAAH_degr_m</v>
+        <v>vFAAH_syn_m</v>
       </c>
       <c r="G226" t="str">
-        <v>MEC * k_deg_FAAH * FAAH_m</v>
+        <v>MEC * FAAH_t * b_FAAH_MEC * k_deg_FAAH</v>
       </c>
       <c r="H226" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K226" t="str">
-        <v xml:space="preserve">FAAH_m = </v>
+        <v xml:space="preserve"> = FAAH_m</v>
       </c>
       <c r="R226" t="str">
         <v>false</v>
@@ -4830,16 +4818,16 @@
         <v>Reaction</v>
       </c>
       <c r="D227" t="str">
-        <v>vFAAH_inh_m</v>
+        <v>vFAAH_degr_m</v>
       </c>
       <c r="G227" t="str">
-        <v>MEC * k_inh * FAAH_m * PF_m</v>
+        <v>MEC * k_deg_FAAH * FAAH_m</v>
       </c>
       <c r="H227" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K227" t="str">
-        <v>FAAH_m = FAAHinh_m</v>
+        <v xml:space="preserve">FAAH_m = </v>
       </c>
       <c r="R227" t="str">
         <v>false</v>
@@ -4853,16 +4841,16 @@
         <v>Reaction</v>
       </c>
       <c r="D228" t="str">
-        <v>vFAAH_inh_degr_m</v>
+        <v>vFAAH_inh_m</v>
       </c>
       <c r="G228" t="str">
-        <v>MEC * k_deg_FAAH * FAAHinh_m</v>
+        <v>MEC * k_inh * FAAH_m * PF_m</v>
       </c>
       <c r="H228" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K228" t="str">
-        <v xml:space="preserve">FAAHinh_m = </v>
+        <v>FAAH_m = FAAHinh_m</v>
       </c>
       <c r="R228" t="str">
         <v>false</v>
@@ -4873,13 +4861,22 @@
         <v>1</v>
       </c>
       <c r="C229" t="str">
-        <v>Const</v>
+        <v>Reaction</v>
       </c>
       <c r="D229" t="str">
-        <v>H</v>
-      </c>
-      <c r="E229">
-        <v>0.48</v>
+        <v>vFAAH_inh_degr_m</v>
+      </c>
+      <c r="G229" t="str">
+        <v>MEC * k_deg_FAAH * FAAHinh_m</v>
+      </c>
+      <c r="H229" t="str">
+        <v>nmole/h</v>
+      </c>
+      <c r="K229" t="str">
+        <v xml:space="preserve">FAAHinh_m = </v>
+      </c>
+      <c r="R229" t="str">
+        <v>false</v>
       </c>
     </row>
     <row r="230">
@@ -4887,22 +4884,13 @@
         <v>1</v>
       </c>
       <c r="C230" t="str">
-        <v>Species</v>
+        <v>Const</v>
       </c>
       <c r="D230" t="str">
-        <v>A_p</v>
-      </c>
-      <c r="F230" t="str">
-        <v>0.8740574</v>
-      </c>
-      <c r="H230" t="str">
-        <v>nM</v>
-      </c>
-      <c r="I230" t="str">
-        <v>PLASMA</v>
-      </c>
-      <c r="Q230" t="str">
-        <v>true</v>
+        <v>H</v>
+      </c>
+      <c r="E230">
+        <v>0.48</v>
       </c>
     </row>
     <row r="231">
@@ -4913,10 +4901,10 @@
         <v>Species</v>
       </c>
       <c r="D231" t="str">
-        <v>O_p</v>
+        <v>A_p</v>
       </c>
       <c r="F231" t="str">
-        <v>5.085073</v>
+        <v>0.8740574</v>
       </c>
       <c r="H231" t="str">
         <v>nM</v>
@@ -4936,10 +4924,10 @@
         <v>Species</v>
       </c>
       <c r="D232" t="str">
-        <v>P_p</v>
+        <v>O_p</v>
       </c>
       <c r="F232" t="str">
-        <v>4.849307</v>
+        <v>5.085073</v>
       </c>
       <c r="H232" t="str">
         <v>nM</v>
@@ -4959,10 +4947,10 @@
         <v>Species</v>
       </c>
       <c r="D233" t="str">
-        <v>L_p</v>
+        <v>P_p</v>
       </c>
       <c r="F233" t="str">
-        <v>1.916254</v>
+        <v>4.849307</v>
       </c>
       <c r="H233" t="str">
         <v>nM</v>
@@ -4970,6 +4958,9 @@
       <c r="I233" t="str">
         <v>PLASMA</v>
       </c>
+      <c r="Q233" t="str">
+        <v>true</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234">
@@ -4979,10 +4970,10 @@
         <v>Species</v>
       </c>
       <c r="D234" t="str">
-        <v>S_p</v>
+        <v>L_p</v>
       </c>
       <c r="F234" t="str">
-        <v>0.273772</v>
+        <v>1.916254</v>
       </c>
       <c r="H234" t="str">
         <v>nM</v>
@@ -4996,16 +4987,19 @@
         <v>1</v>
       </c>
       <c r="C235" t="str">
-        <v>Const</v>
+        <v>Species</v>
       </c>
       <c r="D235" t="str">
-        <v>ktr_m_p_A</v>
-      </c>
-      <c r="E235">
-        <v>150</v>
+        <v>S_p</v>
+      </c>
+      <c r="F235" t="str">
+        <v>0.273772</v>
       </c>
       <c r="H235" t="str">
-        <v>nM/h</v>
+        <v>nM</v>
+      </c>
+      <c r="I235" t="str">
+        <v>PLASMA</v>
       </c>
     </row>
     <row r="236">
@@ -5016,13 +5010,13 @@
         <v>Const</v>
       </c>
       <c r="D236" t="str">
-        <v>Ktr_p_m_A</v>
+        <v>ktr_m_p_A</v>
       </c>
       <c r="E236">
-        <v>1.89</v>
+        <v>150</v>
       </c>
       <c r="H236" t="str">
-        <v>UL</v>
+        <v>nM/h</v>
       </c>
     </row>
     <row r="237">
@@ -5033,13 +5027,13 @@
         <v>Const</v>
       </c>
       <c r="D237" t="str">
-        <v>Km_p_m_A</v>
+        <v>Ktr_p_m_A</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="H237" t="str">
-        <v>nM</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="238">
@@ -5050,13 +5044,13 @@
         <v>Const</v>
       </c>
       <c r="D238" t="str">
-        <v>ktr_m_p_O</v>
+        <v>Km_p_m_A</v>
       </c>
       <c r="E238">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H238" t="str">
-        <v>1/h</v>
+        <v>nM</v>
       </c>
     </row>
     <row r="239">
@@ -5067,13 +5061,13 @@
         <v>Const</v>
       </c>
       <c r="D239" t="str">
-        <v>Ktr_p_m_O</v>
+        <v>ktr_m_p_O</v>
       </c>
       <c r="E239">
-        <v>9.07</v>
+        <v>10</v>
       </c>
       <c r="H239" t="str">
-        <v>UL</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="240">
@@ -5084,13 +5078,13 @@
         <v>Const</v>
       </c>
       <c r="D240" t="str">
-        <v>ktr_m_p_P</v>
+        <v>Ktr_p_m_O</v>
       </c>
       <c r="E240">
-        <v>10</v>
+        <v>9.07</v>
       </c>
       <c r="H240" t="str">
-        <v>1/h</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="241">
@@ -5101,13 +5095,13 @@
         <v>Const</v>
       </c>
       <c r="D241" t="str">
-        <v>Ktr_p_m_P</v>
+        <v>ktr_m_p_P</v>
       </c>
       <c r="E241">
-        <v>2.65</v>
+        <v>10</v>
       </c>
       <c r="H241" t="str">
-        <v>UL</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="242">
@@ -5118,13 +5112,13 @@
         <v>Const</v>
       </c>
       <c r="D242" t="str">
-        <v>ktr_m_p_L</v>
+        <v>Ktr_p_m_P</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="H242" t="str">
-        <v>1/h</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="243">
@@ -5135,13 +5129,13 @@
         <v>Const</v>
       </c>
       <c r="D243" t="str">
-        <v>Ktr_p_m_L</v>
+        <v>ktr_m_p_L</v>
       </c>
       <c r="E243">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="H243" t="str">
-        <v>UL</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="244">
@@ -5152,13 +5146,13 @@
         <v>Const</v>
       </c>
       <c r="D244" t="str">
-        <v>ktr_m_p_S</v>
+        <v>Ktr_p_m_L</v>
       </c>
       <c r="E244">
-        <v>10</v>
+        <v>2.77</v>
       </c>
       <c r="H244" t="str">
-        <v>1/h</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="245">
@@ -5169,13 +5163,13 @@
         <v>Const</v>
       </c>
       <c r="D245" t="str">
-        <v>Ktr_p_m_S</v>
+        <v>ktr_m_p_S</v>
       </c>
       <c r="E245">
-        <v>30.01</v>
+        <v>10</v>
       </c>
       <c r="H245" t="str">
-        <v>UL</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="246">
@@ -5186,13 +5180,13 @@
         <v>Const</v>
       </c>
       <c r="D246" t="str">
-        <v>ktr_r_p_A</v>
+        <v>Ktr_p_m_S</v>
       </c>
       <c r="E246">
-        <v>100</v>
+        <v>30.01</v>
       </c>
       <c r="H246" t="str">
-        <v>nM/h</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="247">
@@ -5203,13 +5197,13 @@
         <v>Const</v>
       </c>
       <c r="D247" t="str">
-        <v>ktr_r_p</v>
+        <v>ktr_r_p_A</v>
       </c>
       <c r="E247">
         <v>100</v>
       </c>
       <c r="H247" t="str">
-        <v>1/h</v>
+        <v>nM/h</v>
       </c>
     </row>
     <row r="248">
@@ -5220,13 +5214,13 @@
         <v>Const</v>
       </c>
       <c r="D248" t="str">
-        <v>Ktr_p_r_A</v>
+        <v>ktr_r_p</v>
       </c>
       <c r="E248">
-        <v>0.62</v>
+        <v>100</v>
       </c>
       <c r="H248" t="str">
-        <v>UL</v>
+        <v>1/h</v>
       </c>
     </row>
     <row r="249">
@@ -5237,10 +5231,10 @@
         <v>Const</v>
       </c>
       <c r="D249" t="str">
-        <v>Ktr_p_r_O</v>
+        <v>Ktr_p_r_A</v>
       </c>
       <c r="E249">
-        <v>2.8</v>
+        <v>0.62</v>
       </c>
       <c r="H249" t="str">
         <v>UL</v>
@@ -5254,10 +5248,10 @@
         <v>Const</v>
       </c>
       <c r="D250" t="str">
-        <v>Ktr_p_r_P</v>
+        <v>Ktr_p_r_O</v>
       </c>
       <c r="E250">
-        <v>0.85</v>
+        <v>2.8</v>
       </c>
       <c r="H250" t="str">
         <v>UL</v>
@@ -5271,10 +5265,10 @@
         <v>Const</v>
       </c>
       <c r="D251" t="str">
-        <v>Ktr_p_r_L</v>
+        <v>Ktr_p_r_P</v>
       </c>
       <c r="E251">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="H251" t="str">
         <v>UL</v>
@@ -5288,10 +5282,10 @@
         <v>Const</v>
       </c>
       <c r="D252" t="str">
-        <v>Ktr_p_r_S</v>
+        <v>Ktr_p_r_L</v>
       </c>
       <c r="E252">
-        <v>9.19</v>
+        <v>0.89</v>
       </c>
       <c r="H252" t="str">
         <v>UL</v>
@@ -5302,19 +5296,16 @@
         <v>1</v>
       </c>
       <c r="C253" t="str">
-        <v>Reaction</v>
+        <v>Const</v>
       </c>
       <c r="D253" t="str">
-        <v>vA_m_p</v>
-      </c>
-      <c r="G253" t="str">
-        <v>MEC * ktr_m_p_A * (A_m - A_p * Ktr_p_m_A) / (A_m + A_p + Km_p_m_A)</v>
+        <v>Ktr_p_r_S</v>
+      </c>
+      <c r="E253">
+        <v>9.19</v>
       </c>
       <c r="H253" t="str">
-        <v>nmole/h</v>
-      </c>
-      <c r="K253" t="str">
-        <v>A_m = A_p</v>
+        <v>UL</v>
       </c>
     </row>
     <row r="254">
@@ -5325,16 +5316,16 @@
         <v>Reaction</v>
       </c>
       <c r="D254" t="str">
-        <v>vO_m_p</v>
+        <v>vA_m_p</v>
       </c>
       <c r="G254" t="str">
-        <v>MEC * ktr_m_p_O * (O_m - O_p * Ktr_p_m_O)</v>
+        <v>MEC * ktr_m_p_A * (A_m - A_p * Ktr_p_m_A) / (A_m + A_p + Km_p_m_A)</v>
       </c>
       <c r="H254" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K254" t="str">
-        <v>O_m = O_p</v>
+        <v>A_m = A_p</v>
       </c>
     </row>
     <row r="255">
@@ -5345,16 +5336,16 @@
         <v>Reaction</v>
       </c>
       <c r="D255" t="str">
-        <v>vP_m_p</v>
+        <v>vO_m_p</v>
       </c>
       <c r="G255" t="str">
-        <v>MEC * ktr_m_p_P * (P_m - P_p * Ktr_p_m_P)</v>
+        <v>MEC * ktr_m_p_O * (O_m - O_p * Ktr_p_m_O)</v>
       </c>
       <c r="H255" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K255" t="str">
-        <v>P_m = P_p</v>
+        <v>O_m = O_p</v>
       </c>
     </row>
     <row r="256">
@@ -5365,16 +5356,16 @@
         <v>Reaction</v>
       </c>
       <c r="D256" t="str">
-        <v>vL_m_p</v>
+        <v>vP_m_p</v>
       </c>
       <c r="G256" t="str">
-        <v>MEC * ktr_m_p_L * (L_m - L_p * Ktr_p_m_L)</v>
+        <v>MEC * ktr_m_p_P * (P_m - P_p * Ktr_p_m_P)</v>
       </c>
       <c r="H256" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K256" t="str">
-        <v>L_m = L_p</v>
+        <v>P_m = P_p</v>
       </c>
     </row>
     <row r="257">
@@ -5385,16 +5376,16 @@
         <v>Reaction</v>
       </c>
       <c r="D257" t="str">
-        <v>vS_m_p</v>
+        <v>vL_m_p</v>
       </c>
       <c r="G257" t="str">
-        <v>MEC * ktr_m_p_S * (S_m - S_p * Ktr_p_m_S)</v>
+        <v>MEC * ktr_m_p_L * (L_m - L_p * Ktr_p_m_L)</v>
       </c>
       <c r="H257" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K257" t="str">
-        <v>S_m = S_p</v>
+        <v>L_m = L_p</v>
       </c>
     </row>
     <row r="258">
@@ -5405,16 +5396,16 @@
         <v>Reaction</v>
       </c>
       <c r="D258" t="str">
-        <v>vA_b_m</v>
+        <v>vS_m_p</v>
       </c>
       <c r="G258" t="str">
-        <v>MEC * ktr_m_p_A * (A_b - A_m) / (A_m + A_b + Km_p_m_A)</v>
+        <v>MEC * ktr_m_p_S * (S_m - S_p * Ktr_p_m_S)</v>
       </c>
       <c r="H258" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K258" t="str">
-        <v>A_b = A_m</v>
+        <v>S_m = S_p</v>
       </c>
     </row>
     <row r="259">
@@ -5425,16 +5416,16 @@
         <v>Reaction</v>
       </c>
       <c r="D259" t="str">
-        <v>vO_b_m</v>
+        <v>vA_b_m</v>
       </c>
       <c r="G259" t="str">
-        <v>MEC * ktr_m_p_O * (O_b - O_m)</v>
+        <v>MEC * ktr_m_p_A * (A_b - A_m) / (A_m + A_b + Km_p_m_A)</v>
       </c>
       <c r="H259" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K259" t="str">
-        <v>O_b = O_m</v>
+        <v>A_b = A_m</v>
       </c>
     </row>
     <row r="260">
@@ -5445,16 +5436,16 @@
         <v>Reaction</v>
       </c>
       <c r="D260" t="str">
-        <v>vP_b_m</v>
+        <v>vO_b_m</v>
       </c>
       <c r="G260" t="str">
-        <v>MEC * ktr_m_p_P * (P_b - P_m)</v>
+        <v>MEC * ktr_m_p_O * (O_b - O_m)</v>
       </c>
       <c r="H260" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K260" t="str">
-        <v>P_b = P_m</v>
+        <v>O_b = O_m</v>
       </c>
     </row>
     <row r="261">
@@ -5465,16 +5456,16 @@
         <v>Reaction</v>
       </c>
       <c r="D261" t="str">
-        <v>vL_b_m</v>
+        <v>vP_b_m</v>
       </c>
       <c r="G261" t="str">
-        <v>MEC * ktr_m_p_L * (L_b - L_m)</v>
+        <v>MEC * ktr_m_p_P * (P_b - P_m)</v>
       </c>
       <c r="H261" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K261" t="str">
-        <v>L_b = L_m</v>
+        <v>P_b = P_m</v>
       </c>
     </row>
     <row r="262">
@@ -5485,16 +5476,16 @@
         <v>Reaction</v>
       </c>
       <c r="D262" t="str">
-        <v>vS_b_m</v>
+        <v>vL_b_m</v>
       </c>
       <c r="G262" t="str">
-        <v>MEC * ktr_m_p_S * (S_b - S_m)</v>
+        <v>MEC * ktr_m_p_L * (L_b - L_m)</v>
       </c>
       <c r="H262" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K262" t="str">
-        <v>S_b = S_m</v>
+        <v>L_b = L_m</v>
       </c>
     </row>
     <row r="263">
@@ -5505,16 +5496,16 @@
         <v>Reaction</v>
       </c>
       <c r="D263" t="str">
-        <v>vA_r_p</v>
+        <v>vS_b_m</v>
       </c>
       <c r="G263" t="str">
-        <v>PLASMA * ktr_r_p_A * (A_r - A_p * Ktr_p_r_A) / (A_r + A_p + Km_p_m_A)</v>
+        <v>MEC * ktr_m_p_S * (S_b - S_m)</v>
       </c>
       <c r="H263" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K263" t="str">
-        <v>A_r = A_p</v>
+        <v>S_b = S_m</v>
       </c>
     </row>
     <row r="264">
@@ -5525,16 +5516,16 @@
         <v>Reaction</v>
       </c>
       <c r="D264" t="str">
-        <v>vO_r_p</v>
+        <v>vA_r_p</v>
       </c>
       <c r="G264" t="str">
-        <v>PLASMA * ktr_r_p * (O_r - O_p * Ktr_p_r_O)</v>
+        <v>PLASMA * ktr_r_p_A * (A_r - A_p * Ktr_p_r_A) / (A_r + A_p + Km_p_m_A)</v>
       </c>
       <c r="H264" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K264" t="str">
-        <v>O_r = O_p</v>
+        <v>A_r = A_p</v>
       </c>
     </row>
     <row r="265">
@@ -5545,16 +5536,16 @@
         <v>Reaction</v>
       </c>
       <c r="D265" t="str">
-        <v>vP_r_p</v>
+        <v>vO_r_p</v>
       </c>
       <c r="G265" t="str">
-        <v>PLASMA * ktr_r_p * (P_r - P_p * Ktr_p_r_P)</v>
+        <v>PLASMA * ktr_r_p * (O_r - O_p * Ktr_p_r_O)</v>
       </c>
       <c r="H265" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K265" t="str">
-        <v>P_r = P_p</v>
+        <v>O_r = O_p</v>
       </c>
     </row>
     <row r="266">
@@ -5565,16 +5556,16 @@
         <v>Reaction</v>
       </c>
       <c r="D266" t="str">
-        <v>vL_r_p</v>
+        <v>vP_r_p</v>
       </c>
       <c r="G266" t="str">
-        <v>PLASMA * ktr_r_p * (L_r - L_p * Ktr_p_r_L)</v>
+        <v>PLASMA * ktr_r_p * (P_r - P_p * Ktr_p_r_P)</v>
       </c>
       <c r="H266" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K266" t="str">
-        <v>L_r = L_p</v>
+        <v>P_r = P_p</v>
       </c>
     </row>
     <row r="267">
@@ -5585,30 +5576,36 @@
         <v>Reaction</v>
       </c>
       <c r="D267" t="str">
-        <v>vS_r_p</v>
+        <v>vL_r_p</v>
       </c>
       <c r="G267" t="str">
-        <v>PLASMA * ktr_r_p * (S_r - S_p * Ktr_p_r_S)</v>
+        <v>PLASMA * ktr_r_p * (L_r - L_p * Ktr_p_r_L)</v>
       </c>
       <c r="H267" t="str">
         <v>nmole/h</v>
       </c>
       <c r="K267" t="str">
-        <v>S_r = S_p</v>
+        <v>L_r = L_p</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
         <v>1</v>
       </c>
-      <c r="B268" t="str">
-        <v>defineUnit</v>
+      <c r="C268" t="str">
+        <v>Reaction</v>
       </c>
       <c r="D268" t="str">
-        <v>fmole</v>
+        <v>vS_r_p</v>
+      </c>
+      <c r="G268" t="str">
+        <v>PLASMA * ktr_r_p * (S_r - S_p * Ktr_p_r_S)</v>
       </c>
       <c r="H268" t="str">
-        <v>(1e-15 mole)</v>
+        <v>nmole/h</v>
+      </c>
+      <c r="K268" t="str">
+        <v>S_r = S_p</v>
       </c>
     </row>
     <row r="269">
@@ -5619,10 +5616,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D269" t="str">
-        <v>pmole</v>
+        <v>fmole</v>
       </c>
       <c r="H269" t="str">
-        <v>(1e-12 mole)</v>
+        <v>(1e-15 mole)</v>
       </c>
     </row>
     <row r="270">
@@ -5633,10 +5630,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D270" t="str">
-        <v>nmole</v>
+        <v>pmole</v>
       </c>
       <c r="H270" t="str">
-        <v>(1e-9 mole)</v>
+        <v>(1e-12 mole)</v>
       </c>
     </row>
     <row r="271">
@@ -5647,10 +5644,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D271" t="str">
-        <v>umole</v>
+        <v>nmole</v>
       </c>
       <c r="H271" t="str">
-        <v>(1e-6 mole)</v>
+        <v>(1e-9 mole)</v>
       </c>
     </row>
     <row r="272">
@@ -5661,10 +5658,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D272" t="str">
-        <v>mmole</v>
+        <v>umole</v>
       </c>
       <c r="H272" t="str">
-        <v>(1e-3 mole)</v>
+        <v>(1e-6 mole)</v>
       </c>
     </row>
     <row r="273">
@@ -5675,10 +5672,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D273" t="str">
-        <v>fM</v>
+        <v>mmole</v>
       </c>
       <c r="H273" t="str">
-        <v>(1e-15 mole)/litre</v>
+        <v>(1e-3 mole)</v>
       </c>
     </row>
     <row r="274">
@@ -5689,10 +5686,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D274" t="str">
-        <v>pM</v>
+        <v>fM</v>
       </c>
       <c r="H274" t="str">
-        <v>(1e-12 mole)/litre</v>
+        <v>(1e-15 mole)/litre</v>
       </c>
     </row>
     <row r="275">
@@ -5703,10 +5700,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D275" t="str">
-        <v>nM</v>
+        <v>pM</v>
       </c>
       <c r="H275" t="str">
-        <v>(1e-9 mole)/litre</v>
+        <v>(1e-12 mole)/litre</v>
       </c>
     </row>
     <row r="276">
@@ -5717,10 +5714,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D276" t="str">
-        <v>uM</v>
+        <v>nM</v>
       </c>
       <c r="H276" t="str">
-        <v>(1e-6 mole)/litre</v>
+        <v>(1e-9 mole)/litre</v>
       </c>
     </row>
     <row r="277">
@@ -5731,10 +5728,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D277" t="str">
-        <v>mM</v>
+        <v>uM</v>
       </c>
       <c r="H277" t="str">
-        <v>(1e-3 mole)/litre</v>
+        <v>(1e-6 mole)/litre</v>
       </c>
     </row>
     <row r="278">
@@ -5745,10 +5742,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D278" t="str">
-        <v>M</v>
+        <v>mM</v>
       </c>
       <c r="H278" t="str">
-        <v>mole/litre</v>
+        <v>(1e-3 mole)/litre</v>
       </c>
     </row>
     <row r="279">
@@ -5759,10 +5756,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D279" t="str">
-        <v>kM</v>
+        <v>M</v>
       </c>
       <c r="H279" t="str">
-        <v>(1e+3 mole)/litre</v>
+        <v>mole/litre</v>
       </c>
     </row>
     <row r="280">
@@ -5773,10 +5770,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D280" t="str">
-        <v>fL</v>
+        <v>kM</v>
       </c>
       <c r="H280" t="str">
-        <v>(1e-15 litre)</v>
+        <v>(1e+3 mole)/litre</v>
       </c>
     </row>
     <row r="281">
@@ -5787,10 +5784,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D281" t="str">
-        <v>pL</v>
+        <v>fL</v>
       </c>
       <c r="H281" t="str">
-        <v>(1e-12 litre)</v>
+        <v>(1e-15 litre)</v>
       </c>
     </row>
     <row r="282">
@@ -5801,10 +5798,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D282" t="str">
-        <v>nL</v>
+        <v>pL</v>
       </c>
       <c r="H282" t="str">
-        <v>(1e-9 litre)</v>
+        <v>(1e-12 litre)</v>
       </c>
     </row>
     <row r="283">
@@ -5815,10 +5812,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D283" t="str">
-        <v>uL</v>
+        <v>nL</v>
       </c>
       <c r="H283" t="str">
-        <v>(1e-6 litre)</v>
+        <v>(1e-9 litre)</v>
       </c>
     </row>
     <row r="284">
@@ -5829,10 +5826,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D284" t="str">
-        <v>mL</v>
+        <v>uL</v>
       </c>
       <c r="H284" t="str">
-        <v>(1e-3 litre)</v>
+        <v>(1e-6 litre)</v>
       </c>
     </row>
     <row r="285">
@@ -5843,10 +5840,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D285" t="str">
-        <v>dL</v>
+        <v>mL</v>
       </c>
       <c r="H285" t="str">
-        <v>(1e-1 litre)</v>
+        <v>(1e-3 litre)</v>
       </c>
     </row>
     <row r="286">
@@ -5857,10 +5854,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D286" t="str">
-        <v>L</v>
+        <v>dL</v>
       </c>
       <c r="H286" t="str">
-        <v>litre</v>
+        <v>(1e-1 litre)</v>
       </c>
     </row>
     <row r="287">
@@ -5871,10 +5868,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D287" t="str">
-        <v>fs</v>
+        <v>L</v>
       </c>
       <c r="H287" t="str">
-        <v>(1e-15 second)</v>
+        <v>litre</v>
       </c>
     </row>
     <row r="288">
@@ -5885,10 +5882,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D288" t="str">
-        <v>ps</v>
+        <v>fs</v>
       </c>
       <c r="H288" t="str">
-        <v>(1e-12 second)</v>
+        <v>(1e-15 second)</v>
       </c>
     </row>
     <row r="289">
@@ -5899,10 +5896,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D289" t="str">
-        <v>ns</v>
+        <v>ps</v>
       </c>
       <c r="H289" t="str">
-        <v>(1e-9 second)</v>
+        <v>(1e-12 second)</v>
       </c>
     </row>
     <row r="290">
@@ -5913,10 +5910,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D290" t="str">
-        <v>us</v>
+        <v>ns</v>
       </c>
       <c r="H290" t="str">
-        <v>(1e-6 second)</v>
+        <v>(1e-9 second)</v>
       </c>
     </row>
     <row r="291">
@@ -5927,10 +5924,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D291" t="str">
-        <v>ms</v>
+        <v>us</v>
       </c>
       <c r="H291" t="str">
-        <v>(1e-3 second)</v>
+        <v>(1e-6 second)</v>
       </c>
     </row>
     <row r="292">
@@ -5941,10 +5938,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D292" t="str">
-        <v>s</v>
+        <v>ms</v>
       </c>
       <c r="H292" t="str">
-        <v>second</v>
+        <v>(1e-3 second)</v>
       </c>
     </row>
     <row r="293">
@@ -5955,10 +5952,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D293" t="str">
-        <v>h</v>
+        <v>s</v>
       </c>
       <c r="H293" t="str">
-        <v>hour</v>
+        <v>second</v>
       </c>
     </row>
     <row r="294">
@@ -5969,10 +5966,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D294" t="str">
-        <v>week</v>
+        <v>h</v>
       </c>
       <c r="H294" t="str">
-        <v>(7e+0 day)</v>
+        <v>hour</v>
       </c>
     </row>
     <row r="295">
@@ -5983,10 +5980,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D295" t="str">
-        <v>fg</v>
+        <v>week</v>
       </c>
       <c r="H295" t="str">
-        <v>(1e-18 kilogram)</v>
+        <v>(7e+0 day)</v>
       </c>
     </row>
     <row r="296">
@@ -5997,10 +5994,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D296" t="str">
-        <v>pg</v>
+        <v>fg</v>
       </c>
       <c r="H296" t="str">
-        <v>(1e-15 kilogram)</v>
+        <v>(1e-18 kilogram)</v>
       </c>
     </row>
     <row r="297">
@@ -6011,10 +6008,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D297" t="str">
-        <v>ng</v>
+        <v>pg</v>
       </c>
       <c r="H297" t="str">
-        <v>(1e-12 kilogram)</v>
+        <v>(1e-15 kilogram)</v>
       </c>
     </row>
     <row r="298">
@@ -6025,10 +6022,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D298" t="str">
-        <v>ug</v>
+        <v>ng</v>
       </c>
       <c r="H298" t="str">
-        <v>(1e-9 kilogram)</v>
+        <v>(1e-12 kilogram)</v>
       </c>
     </row>
     <row r="299">
@@ -6039,10 +6036,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D299" t="str">
-        <v>mg</v>
+        <v>ug</v>
       </c>
       <c r="H299" t="str">
-        <v>(1e-6 kilogram)</v>
+        <v>(1e-9 kilogram)</v>
       </c>
     </row>
     <row r="300">
@@ -6053,10 +6050,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D300" t="str">
-        <v>g</v>
+        <v>mg</v>
       </c>
       <c r="H300" t="str">
-        <v>(1e-3 kilogram)</v>
+        <v>(1e-6 kilogram)</v>
       </c>
     </row>
     <row r="301">
@@ -6067,10 +6064,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D301" t="str">
-        <v>kg</v>
+        <v>g</v>
       </c>
       <c r="H301" t="str">
-        <v>kilogram</v>
+        <v>(1e-3 kilogram)</v>
       </c>
     </row>
     <row r="302">
@@ -6081,10 +6078,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D302" t="str">
-        <v>kat</v>
+        <v>kg</v>
       </c>
       <c r="H302" t="str">
-        <v>katal</v>
+        <v>kilogram</v>
       </c>
     </row>
     <row r="303">
@@ -6095,10 +6092,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D303" t="str">
-        <v>cell</v>
+        <v>kat</v>
       </c>
       <c r="H303" t="str">
-        <v>item</v>
+        <v>katal</v>
       </c>
     </row>
     <row r="304">
@@ -6109,10 +6106,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D304" t="str">
-        <v>kcell</v>
+        <v>cell</v>
       </c>
       <c r="H304" t="str">
-        <v>(1e+3 item)</v>
+        <v>item</v>
       </c>
     </row>
     <row r="305">
@@ -6123,10 +6120,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D305" t="str">
-        <v>cal</v>
+        <v>kcell</v>
       </c>
       <c r="H305" t="str">
-        <v>(4.1868e+0 joule)</v>
+        <v>(1e+3 item)</v>
       </c>
     </row>
     <row r="306">
@@ -6137,10 +6134,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D306" t="str">
-        <v>kcal</v>
+        <v>cal</v>
       </c>
       <c r="H306" t="str">
-        <v>(4.1868e+3 joule)</v>
+        <v>(4.1868e+0 joule)</v>
       </c>
     </row>
     <row r="307">
@@ -6151,10 +6148,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D307" t="str">
-        <v>fm</v>
+        <v>kcal</v>
       </c>
       <c r="H307" t="str">
-        <v>(1e-15 metre)</v>
+        <v>(4.1868e+3 joule)</v>
       </c>
     </row>
     <row r="308">
@@ -6165,10 +6162,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D308" t="str">
-        <v>pm</v>
+        <v>fm</v>
       </c>
       <c r="H308" t="str">
-        <v>(1e-12 metre)</v>
+        <v>(1e-15 metre)</v>
       </c>
     </row>
     <row r="309">
@@ -6179,10 +6176,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D309" t="str">
-        <v>nm</v>
+        <v>pm</v>
       </c>
       <c r="H309" t="str">
-        <v>(1e-9 metre)</v>
+        <v>(1e-12 metre)</v>
       </c>
     </row>
     <row r="310">
@@ -6193,10 +6190,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D310" t="str">
-        <v>um</v>
+        <v>nm</v>
       </c>
       <c r="H310" t="str">
-        <v>(1e-6 metre)</v>
+        <v>(1e-9 metre)</v>
       </c>
     </row>
     <row r="311">
@@ -6207,10 +6204,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D311" t="str">
-        <v>mm</v>
+        <v>um</v>
       </c>
       <c r="H311" t="str">
-        <v>(1e-13 metre)</v>
+        <v>(1e-6 metre)</v>
       </c>
     </row>
     <row r="312">
@@ -6221,10 +6218,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D312" t="str">
-        <v>cm</v>
+        <v>mm</v>
       </c>
       <c r="H312" t="str">
-        <v>(1e-2 metre)</v>
+        <v>(1e-13 metre)</v>
       </c>
     </row>
     <row r="313">
@@ -6235,10 +6232,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D313" t="str">
-        <v>m</v>
+        <v>cm</v>
       </c>
       <c r="H313" t="str">
-        <v>metre</v>
+        <v>(1e-2 metre)</v>
       </c>
     </row>
     <row r="314">
@@ -6249,10 +6246,10 @@
         <v>defineUnit</v>
       </c>
       <c r="D314" t="str">
-        <v>UL</v>
+        <v>m</v>
       </c>
       <c r="H314" t="str">
-        <v>dimensionless</v>
+        <v>metre</v>
       </c>
     </row>
     <row r="315">
@@ -6263,15 +6260,29 @@
         <v>defineUnit</v>
       </c>
       <c r="D315" t="str">
+        <v>UL</v>
+      </c>
+      <c r="H315" t="str">
+        <v>dimensionless</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>1</v>
+      </c>
+      <c r="B316" t="str">
+        <v>defineUnit</v>
+      </c>
+      <c r="D316" t="str">
         <v>percent</v>
       </c>
-      <c r="H315" t="str">
+      <c r="H316" t="str">
         <v>(1e-2 dimensionless)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T315"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T316"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -446,9 +446,6 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <v>TimeScale</v>
-      </c>
       <c r="D2" t="str">
         <v>t</v>
       </c>
